--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_hists_summary.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_hists_summary.xlsx
@@ -1170,19 +1170,19 @@
         <v>130</v>
       </c>
       <c r="D2">
-        <v>0.2804716458965801</v>
+        <v>0.001083510843494742</v>
       </c>
       <c r="E2">
-        <v>0.6543063685614129</v>
+        <v>0.2670233642508512</v>
       </c>
       <c r="F2">
-        <v>0.065221985542007</v>
+        <v>0.6372217842706429</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.09466127706680533</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.006356820583351E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>131</v>
       </c>
       <c r="D3">
-        <v>0.2777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5833333333333334</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="F3">
-        <v>0.1388888888888889</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>132</v>
       </c>
       <c r="D4">
-        <v>0.9949926707710349</v>
+        <v>0.0006684256816182938</v>
       </c>
       <c r="E4">
-        <v>0.005007329228965113</v>
+        <v>0.5873233655819408</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.4080093814130754</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.003998827323365582</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>133</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8256484149855908</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.1743515850144092</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>134</v>
       </c>
       <c r="D6">
-        <v>0.07216570851599251</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4394602561865085</v>
+        <v>0.0008068287311653579</v>
       </c>
       <c r="F6">
-        <v>0.4184684910408448</v>
+        <v>0.2330750252817854</v>
       </c>
       <c r="G6">
-        <v>0.06663683065529212</v>
+        <v>0.765027401078536</v>
       </c>
       <c r="H6">
-        <v>0.002778550557351668</v>
+        <v>0.001090744908513339</v>
       </c>
       <c r="I6">
-        <v>0.0004901630440104207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1315,19 +1315,19 @@
         <v>135</v>
       </c>
       <c r="D7">
-        <v>0.8496719751602564</v>
+        <v>0.0001627604166666667</v>
       </c>
       <c r="E7">
-        <v>0.1496269030448718</v>
+        <v>0.6395733173076923</v>
       </c>
       <c r="F7">
-        <v>0.0007011217948717949</v>
+        <v>0.3209259815705128</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.03847405849358974</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0008638822115384615</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>136</v>
       </c>
       <c r="D8">
-        <v>0.1207222990968471</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8756249163058519</v>
+        <v>0.07959127497805353</v>
       </c>
       <c r="F8">
-        <v>0.003650924727343064</v>
+        <v>0.8232435388117663</v>
       </c>
       <c r="G8">
-        <v>1.859869957892544E-06</v>
+        <v>0.09716518621018018</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>137</v>
       </c>
       <c r="D9">
-        <v>0.01777935955417054</v>
+        <v>1.215267228583085E-05</v>
       </c>
       <c r="E9">
-        <v>0.2218348799055564</v>
+        <v>0.6573102664039374</v>
       </c>
       <c r="F9">
-        <v>0.4639925000651036</v>
+        <v>0.3404657945677555</v>
       </c>
       <c r="G9">
-        <v>0.2390239668058437</v>
+        <v>0.002211786356021215</v>
       </c>
       <c r="H9">
-        <v>0.05185198045155858</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.005517313217767207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1402,19 +1402,19 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>0.0003458982235655518</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06665952908427564</v>
+        <v>0.0004200192714724558</v>
       </c>
       <c r="F10">
-        <v>0.6898692998855241</v>
+        <v>0.4504418438022451</v>
       </c>
       <c r="G10">
-        <v>0.2368579264225064</v>
+        <v>0.5490969585663342</v>
       </c>
       <c r="H10">
-        <v>0.006267346384128213</v>
+        <v>4.117835994827998E-05</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1431,16 +1431,16 @@
         <v>139</v>
       </c>
       <c r="D11">
-        <v>0.225519133768941</v>
+        <v>0.0002388313876363221</v>
       </c>
       <c r="E11">
-        <v>0.7682790381325463</v>
+        <v>0.4285232172664709</v>
       </c>
       <c r="F11">
-        <v>0.006201828098512756</v>
+        <v>0.569005397070162</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.002232554275730837</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>140</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.001921844971172326</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.9064702114029468</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.09160794362588084</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1489,13 +1489,13 @@
         <v>141</v>
       </c>
       <c r="D13">
-        <v>0.3576809611451031</v>
+        <v>0.03947432920824068</v>
       </c>
       <c r="E13">
-        <v>0.6422822739851782</v>
+        <v>0.9509445229256814</v>
       </c>
       <c r="F13">
-        <v>3.676486971867076E-05</v>
+        <v>0.009581147866077834</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>142</v>
       </c>
       <c r="D14">
-        <v>0.02334707110907165</v>
+        <v>0.03277767532818417</v>
       </c>
       <c r="E14">
-        <v>0.2360309979114578</v>
+        <v>0.9390248609425458</v>
       </c>
       <c r="F14">
-        <v>0.4883800717909571</v>
+        <v>0.02811169197648139</v>
       </c>
       <c r="G14">
-        <v>0.1817760756849947</v>
+        <v>8.577175278865411E-05</v>
       </c>
       <c r="H14">
-        <v>0.05678518893372846</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01368059456979033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1547,19 +1547,19 @@
         <v>143</v>
       </c>
       <c r="D15">
-        <v>0.007904719894133216</v>
+        <v>0.0008292898103220115</v>
       </c>
       <c r="E15">
-        <v>0.4663255403617115</v>
+        <v>0.7910189677988531</v>
       </c>
       <c r="F15">
-        <v>0.4693603881782091</v>
+        <v>0.2081164534627261</v>
       </c>
       <c r="G15">
-        <v>0.05547419497132774</v>
+        <v>3.5288928098809E-05</v>
       </c>
       <c r="H15">
-        <v>0.0009351565946184385</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>144</v>
       </c>
       <c r="D16">
-        <v>2.882598951214415E-05</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1948315000804726</v>
+        <v>0.1787499609648059</v>
       </c>
       <c r="F16">
-        <v>0.6883386861594414</v>
+        <v>0.6389083597771751</v>
       </c>
       <c r="G16">
-        <v>0.1134792729124579</v>
+        <v>0.1783396710474164</v>
       </c>
       <c r="H16">
-        <v>0.003266465044884468</v>
+        <v>0.004002008210602679</v>
       </c>
       <c r="I16">
-        <v>5.524981323160962E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1605,16 +1605,16 @@
         <v>145</v>
       </c>
       <c r="D17">
-        <v>0.2750124529279324</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.722449142242324</v>
+        <v>0.1284106079021299</v>
       </c>
       <c r="F17">
-        <v>0.002538404829743569</v>
+        <v>0.8310386738129869</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.04055071828488314</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>146</v>
       </c>
       <c r="D18">
-        <v>0.02376910016977929</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.886860969628372</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0893699302018487</v>
+        <v>0.7895208451235616</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.2104791548764384</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>147</v>
       </c>
       <c r="D19">
-        <v>0.0307267943943623</v>
+        <v>0.003955720417726408</v>
       </c>
       <c r="E19">
-        <v>0.7885168963481733</v>
+        <v>0.9330901697286819</v>
       </c>
       <c r="F19">
-        <v>0.1716475123707358</v>
+        <v>0.06294026337460555</v>
       </c>
       <c r="G19">
-        <v>0.008987093624060808</v>
+        <v>1.384647898614623E-05</v>
       </c>
       <c r="H19">
-        <v>0.0001217032626677064</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>148</v>
       </c>
       <c r="D20">
-        <v>0.02296819787985866</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.276433813536287</v>
+        <v>0.002310410437618918</v>
       </c>
       <c r="F20">
-        <v>0.6126664854580048</v>
+        <v>0.6167436803479206</v>
       </c>
       <c r="G20">
-        <v>0.08222343027996738</v>
+        <v>0.3809459092144605</v>
       </c>
       <c r="H20">
-        <v>0.005436259853220984</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0002718129926610492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1721,19 +1721,19 @@
         <v>149</v>
       </c>
       <c r="D21">
-        <v>0.0216515906251508</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3560072708164655</v>
+        <v>0.01044688354003685</v>
       </c>
       <c r="F21">
-        <v>0.6033240571441849</v>
+        <v>0.4960884508764122</v>
       </c>
       <c r="G21">
-        <v>0.01886515924124705</v>
+        <v>0.4919525931327603</v>
       </c>
       <c r="H21">
-        <v>0.0001519221729517763</v>
+        <v>0.001512072450790621</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1750,19 +1750,19 @@
         <v>150</v>
       </c>
       <c r="D22">
-        <v>0.1440425836977561</v>
+        <v>0.001380027242096208</v>
       </c>
       <c r="E22">
-        <v>0.8213253040839248</v>
+        <v>0.2469472124644538</v>
       </c>
       <c r="F22">
-        <v>0.0325889550027481</v>
+        <v>0.7262288814012952</v>
       </c>
       <c r="G22">
-        <v>0.001983415776519225</v>
+        <v>0.02544387889215476</v>
       </c>
       <c r="H22">
-        <v>5.974143905178388E-05</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1779,22 +1779,22 @@
         <v>151</v>
       </c>
       <c r="D23">
-        <v>0.01085069213470512</v>
+        <v>1.665052816944518E-06</v>
       </c>
       <c r="E23">
-        <v>0.3904409774852537</v>
+        <v>0.0202579467175916</v>
       </c>
       <c r="F23">
-        <v>0.536661541024665</v>
+        <v>0.4448590498509957</v>
       </c>
       <c r="G23">
-        <v>0.05463070940489412</v>
+        <v>0.5299784107945831</v>
       </c>
       <c r="H23">
-        <v>0.007059301574333557</v>
+        <v>0.004899564830284268</v>
       </c>
       <c r="I23">
-        <v>0.0003567783761484253</v>
+        <v>3.362753728338928E-06</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1808,22 +1808,22 @@
         <v>152</v>
       </c>
       <c r="D24">
-        <v>0.05074355805439027</v>
+        <v>0.5756151707910142</v>
       </c>
       <c r="E24">
-        <v>0.4048214893834487</v>
+        <v>0.2957115682280332</v>
       </c>
       <c r="F24">
-        <v>0.4239715850535882</v>
+        <v>0.1029073213491892</v>
       </c>
       <c r="G24">
-        <v>0.1126765278099505</v>
+        <v>0.0257567899537428</v>
       </c>
       <c r="H24">
-        <v>0.006918064673639183</v>
+        <v>9.149678020598826E-06</v>
       </c>
       <c r="I24">
-        <v>0.00086877502498314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1837,16 +1837,16 @@
         <v>153</v>
       </c>
       <c r="D25">
-        <v>0.1137780000185201</v>
+        <v>3.704012371401321E-05</v>
       </c>
       <c r="E25">
-        <v>0.736366919465511</v>
+        <v>0.312739024548342</v>
       </c>
       <c r="F25">
-        <v>0.1441046013093684</v>
+        <v>0.6741858117806113</v>
       </c>
       <c r="G25">
-        <v>0.00575047920660055</v>
+        <v>0.01303812354733265</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1866,22 +1866,22 @@
         <v>154</v>
       </c>
       <c r="D26">
-        <v>0.001092988061207331</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.0530519589709097</v>
+        <v>0.2565158903648899</v>
       </c>
       <c r="F26">
-        <v>0.4488817891373802</v>
+        <v>0.7432318816209854</v>
       </c>
       <c r="G26">
-        <v>0.4055826467126282</v>
+        <v>0.0002522280141247688</v>
       </c>
       <c r="H26">
-        <v>0.08390785269883975</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.007482764419034807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1895,16 +1895,16 @@
         <v>155</v>
       </c>
       <c r="D27">
-        <v>0.3155256603984777</v>
+        <v>0.001427132303559436</v>
       </c>
       <c r="E27">
-        <v>0.6830314668681442</v>
+        <v>0.5502364562346094</v>
       </c>
       <c r="F27">
-        <v>0.001442872733378106</v>
+        <v>0.4263715161182001</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.02196489534363107</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1924,22 +1924,22 @@
         <v>156</v>
       </c>
       <c r="D28">
-        <v>0.02069011032525601</v>
+        <v>2.199905404067625E-05</v>
       </c>
       <c r="E28">
-        <v>0.4008007655670806</v>
+        <v>0.2644616281499895</v>
       </c>
       <c r="F28">
-        <v>0.4273756228482175</v>
+        <v>0.7087545235554871</v>
       </c>
       <c r="G28">
-        <v>0.1428948555212126</v>
+        <v>0.02676184924048266</v>
       </c>
       <c r="H28">
-        <v>0.00809565188696886</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.0001429938512643956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1953,19 +1953,19 @@
         <v>157</v>
       </c>
       <c r="D29">
-        <v>0.02798400913763564</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.7401484865790977</v>
+        <v>0.0759565962307253</v>
       </c>
       <c r="F29">
-        <v>0.1941747572815534</v>
+        <v>0.9240434037692747</v>
       </c>
       <c r="G29">
-        <v>0.03426613363792119</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.003426613363792119</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>158</v>
       </c>
       <c r="D30">
-        <v>0.8445529431018494</v>
+        <v>0.00430963940865201</v>
       </c>
       <c r="E30">
-        <v>0.1553652283017839</v>
+        <v>0.9399378102667613</v>
       </c>
       <c r="F30">
-        <v>8.182859636681032E-05</v>
+        <v>0.05575255032458677</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2011,22 +2011,22 @@
         <v>159</v>
       </c>
       <c r="D31">
-        <v>0.004452866771733536</v>
+        <v>0.02589396868496288</v>
       </c>
       <c r="E31">
-        <v>0.4194862735968127</v>
+        <v>0.7733554615479254</v>
       </c>
       <c r="F31">
-        <v>0.3947461747210764</v>
+        <v>0.2002770328576456</v>
       </c>
       <c r="G31">
-        <v>0.1417403003714852</v>
+        <v>0.0004735369094661784</v>
       </c>
       <c r="H31">
-        <v>0.03126436259461137</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.008310021944280833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2040,22 +2040,22 @@
         <v>160</v>
       </c>
       <c r="D32">
-        <v>0.005631536604987933</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.3199091382329279</v>
+        <v>0.04926411433439024</v>
       </c>
       <c r="F32">
-        <v>0.5127064502389854</v>
+        <v>0.9416970327954191</v>
       </c>
       <c r="G32">
-        <v>0.1379963087407127</v>
+        <v>0.009038852870190715</v>
       </c>
       <c r="H32">
-        <v>0.02039657375419999</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.003359992428186077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2069,16 +2069,16 @@
         <v>161</v>
       </c>
       <c r="D33">
-        <v>0.4381408065618592</v>
+        <v>0</v>
       </c>
       <c r="E33">
+        <v>0.4331282752335384</v>
+      </c>
+      <c r="F33">
         <v>0.5618591934381408</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.005012531328320802</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>162</v>
       </c>
       <c r="D34">
-        <v>0.003652911101562201</v>
+        <v>1.812319459000894E-07</v>
       </c>
       <c r="E34">
-        <v>0.1299712149300327</v>
+        <v>0.01610463317657374</v>
       </c>
       <c r="F34">
-        <v>0.6166505762904032</v>
+        <v>0.6535222156837763</v>
       </c>
       <c r="G34">
-        <v>0.232634219019894</v>
+        <v>0.329288296711492</v>
       </c>
       <c r="H34">
-        <v>0.01675851803738126</v>
+        <v>0.001084310732320235</v>
       </c>
       <c r="I34">
-        <v>0.000332560620726664</v>
+        <v>3.624638918001787E-07</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2127,16 +2127,16 @@
         <v>163</v>
       </c>
       <c r="D35">
-        <v>0.3394155576896694</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.6559198792701331</v>
+        <v>0.1622993551927562</v>
       </c>
       <c r="F35">
-        <v>0.004664563040197558</v>
+        <v>0.79654273562903</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.04115790917821375</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2156,22 +2156,22 @@
         <v>164</v>
       </c>
       <c r="D36">
-        <v>0.000242662914262073</v>
+        <v>2.255231545186552E-07</v>
       </c>
       <c r="E36">
-        <v>0.122427837946729</v>
+        <v>0.1436179935453018</v>
       </c>
       <c r="F36">
-        <v>0.7545131975586217</v>
+        <v>0.8305349104768924</v>
       </c>
       <c r="G36">
-        <v>0.1185399315244046</v>
+        <v>0.02584675769307404</v>
       </c>
       <c r="H36">
-        <v>0.004191460588306466</v>
+        <v>1.127615772593276E-07</v>
       </c>
       <c r="I36">
-        <v>8.490946767627369E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2185,22 +2185,22 @@
         <v>165</v>
       </c>
       <c r="D37">
-        <v>0.06597550656203305</v>
+        <v>0.0006754575851269723</v>
       </c>
       <c r="E37">
-        <v>0.5770439134666552</v>
+        <v>0.4982259891652616</v>
       </c>
       <c r="F37">
-        <v>0.3230207659589317</v>
+        <v>0.4777990052578516</v>
       </c>
       <c r="G37">
-        <v>0.03130284801331972</v>
+        <v>0.02329954799175992</v>
       </c>
       <c r="H37">
-        <v>0.002508664425942058</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.0001483015731182836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.7916666666666666</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.2083333333333333</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2243,22 +2243,22 @@
         <v>167</v>
       </c>
       <c r="D39">
-        <v>0.001128612730283779</v>
+        <v>0.004591641014605301</v>
       </c>
       <c r="E39">
-        <v>0.2681513674342013</v>
+        <v>0.7582301013295408</v>
       </c>
       <c r="F39">
-        <v>0.5191244304306739</v>
+        <v>0.2360765445035975</v>
       </c>
       <c r="G39">
-        <v>0.2009164569279278</v>
+        <v>0.00110054360538553</v>
       </c>
       <c r="H39">
-        <v>0.01066743700820554</v>
+        <v>1.169546870760393E-06</v>
       </c>
       <c r="I39">
-        <v>1.169546870760393E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2301,16 +2301,16 @@
         <v>169</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.4640314724615961</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.5324091420007493</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.003559385537654552</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2330,16 +2330,16 @@
         <v>170</v>
       </c>
       <c r="D42">
-        <v>0.9725232004013042</v>
+        <v>0.01356909957361425</v>
       </c>
       <c r="E42">
-        <v>0.02745171808377226</v>
+        <v>0.7897667419112114</v>
       </c>
       <c r="F42">
-        <v>2.508151492350138E-05</v>
+        <v>0.195422623526461</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.001241534988713318</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2388,19 +2388,19 @@
         <v>172</v>
       </c>
       <c r="D44">
-        <v>0.07904919845218353</v>
+        <v>0.003869541182974019</v>
       </c>
       <c r="E44">
-        <v>0.3852957435046988</v>
+        <v>0.6058595909342178</v>
       </c>
       <c r="F44">
-        <v>0.3454947484798231</v>
+        <v>0.3902708678828082</v>
       </c>
       <c r="G44">
-        <v>0.1846323935876175</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0.00552791597567717</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2417,19 +2417,19 @@
         <v>173</v>
       </c>
       <c r="D45">
-        <v>0.1821780550076526</v>
+        <v>0.0004924699207937074</v>
       </c>
       <c r="E45">
-        <v>0.7378173543122845</v>
+        <v>0.6050040082769206</v>
       </c>
       <c r="F45">
-        <v>0.0798290142970564</v>
+        <v>0.3885407816482583</v>
       </c>
       <c r="G45">
-        <v>0.0001747199128455964</v>
+        <v>0.005961883684599994</v>
       </c>
       <c r="H45">
-        <v>8.564701610078256E-07</v>
+        <v>8.564694274673171E-07</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2446,22 +2446,22 @@
         <v>174</v>
       </c>
       <c r="D46">
-        <v>0.008635247802232744</v>
+        <v>2.231328521845264E-06</v>
       </c>
       <c r="E46">
-        <v>0.2014180847079877</v>
+        <v>0.03384739423595778</v>
       </c>
       <c r="F46">
-        <v>0.5897048656757825</v>
+        <v>0.8124348963417741</v>
       </c>
       <c r="G46">
-        <v>0.1914905248423286</v>
+        <v>0.1536887021514841</v>
       </c>
       <c r="H46">
-        <v>0.008697353158949921</v>
+        <v>2.677594226214317E-05</v>
       </c>
       <c r="I46">
-        <v>5.392381271850766E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2475,16 +2475,16 @@
         <v>175</v>
       </c>
       <c r="D47">
-        <v>0.002915451895043732</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.239067055393586</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F47">
-        <v>0.6151603498542274</v>
+        <v>0.478134110787172</v>
       </c>
       <c r="G47">
-        <v>0.1428571428571428</v>
+        <v>0.01166180758017493</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2504,22 +2504,22 @@
         <v>176</v>
       </c>
       <c r="D48">
-        <v>0.02447623772930844</v>
+        <v>0.0004221288983587312</v>
       </c>
       <c r="E48">
-        <v>0.1474815717540163</v>
+        <v>0.3702392875332801</v>
       </c>
       <c r="F48">
-        <v>0.6350799314065216</v>
+        <v>0.6070881463046777</v>
       </c>
       <c r="G48">
-        <v>0.1711471114275524</v>
+        <v>0.02225043726368349</v>
       </c>
       <c r="H48">
-        <v>0.01989862326098029</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0.001916524421620896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2533,13 +2533,13 @@
         <v>177</v>
       </c>
       <c r="D49">
-        <v>0.9892725656976006</v>
+        <v>0.002031230163767932</v>
       </c>
       <c r="E49">
-        <v>0.01072743430239939</v>
+        <v>0.8776818585755999</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.1202869112606322</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>178</v>
       </c>
       <c r="D50">
-        <v>0.5843881856540084</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.4156118143459915</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.5675105485232067</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.002109704641350211</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2591,22 +2591,22 @@
         <v>179</v>
       </c>
       <c r="D51">
-        <v>0.002447177097271474</v>
+        <v>4.833301959267983E-05</v>
       </c>
       <c r="E51">
-        <v>0.3849496064674668</v>
+        <v>0.4835489664365337</v>
       </c>
       <c r="F51">
-        <v>0.5210426704247709</v>
+        <v>0.5121086933295346</v>
       </c>
       <c r="G51">
-        <v>0.08821284844291362</v>
+        <v>0.004294007214339135</v>
       </c>
       <c r="H51">
-        <v>0.003332434508758452</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1.5263058818741E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2620,22 +2620,22 @@
         <v>180</v>
       </c>
       <c r="D52">
-        <v>0.02688664165420065</v>
+        <v>0.0001404935974881052</v>
       </c>
       <c r="E52">
-        <v>0.2667670482877318</v>
+        <v>0.08339539095547961</v>
       </c>
       <c r="F52">
-        <v>0.5350910924254854</v>
+        <v>0.8673853538314916</v>
       </c>
       <c r="G52">
-        <v>0.1515088910871978</v>
+        <v>0.04907725363417226</v>
       </c>
       <c r="H52">
-        <v>0.01849369259598835</v>
+        <v>1.507981368387533E-06</v>
       </c>
       <c r="I52">
-        <v>0.001252633949396001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2649,13 +2649,13 @@
         <v>181</v>
       </c>
       <c r="D53">
-        <v>0.650103519668737</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.3478260869565217</v>
+        <v>0.9648033126293996</v>
       </c>
       <c r="F53">
-        <v>0.002070393374741201</v>
+        <v>0.03519668737060042</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>0.9485714285714286</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.03428571428571429</v>
       </c>
-      <c r="G54">
-        <v>0.01142857142857143</v>
-      </c>
       <c r="H54">
-        <v>0.005714285714285714</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>0.002857142857142857</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2707,13 +2707,13 @@
         <v>183</v>
       </c>
       <c r="D55">
-        <v>0.1724722765818656</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.8275277234181344</v>
+        <v>0.8524461839530333</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.1475538160469667</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2736,22 +2736,22 @@
         <v>184</v>
       </c>
       <c r="D56">
-        <v>0.001539313059254021</v>
+        <v>9.224808585221857E-06</v>
       </c>
       <c r="E56">
-        <v>0.2991125734141016</v>
+        <v>0.2435663109990468</v>
       </c>
       <c r="F56">
-        <v>0.6503699148242674</v>
+        <v>0.6240410811475662</v>
       </c>
       <c r="G56">
-        <v>0.04576181544232957</v>
+        <v>0.1323833830448018</v>
       </c>
       <c r="H56">
-        <v>0.002822176439838873</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0.0003942068202084807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2765,19 +2765,19 @@
         <v>185</v>
       </c>
       <c r="D57">
-        <v>0.4103635603844547</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.2861470956957793</v>
+        <v>0.1159632260760552</v>
       </c>
       <c r="F57">
-        <v>0.228583368157125</v>
+        <v>0.8829920601755119</v>
       </c>
       <c r="G57">
-        <v>0.07448809026326786</v>
+        <v>0.001044713748432929</v>
       </c>
       <c r="H57">
-        <v>0.0004178854993731718</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>186</v>
       </c>
       <c r="D58">
-        <v>0.5188404820315281</v>
+        <v>0.004217553927428939</v>
       </c>
       <c r="E58">
-        <v>0.4800485339839801</v>
+        <v>0.6844593505689852</v>
       </c>
       <c r="F58">
-        <v>0.001110712217372387</v>
+        <v>0.2717842408226282</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.03950307201022424</v>
       </c>
       <c r="H58">
-        <v>9.058903983136669E-08</v>
+        <v>3.578267073338984E-05</v>
       </c>
       <c r="I58">
-        <v>1.811780796627334E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2823,16 +2823,16 @@
         <v>187</v>
       </c>
       <c r="D59">
-        <v>0.005773100649886187</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.5530630422590967</v>
+        <v>0.04074159601491109</v>
       </c>
       <c r="F59">
-        <v>0.4304423844555141</v>
+        <v>0.9592584039850889</v>
       </c>
       <c r="G59">
-        <v>0.01072147263550292</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2852,19 +2852,19 @@
         <v>188</v>
       </c>
       <c r="D60">
-        <v>0.9318181818181818</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.06818181818181818</v>
+        <v>0.1646464646464647</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.5116161616161616</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.0005050505050505051</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2881,22 +2881,22 @@
         <v>189</v>
       </c>
       <c r="D61">
-        <v>0.0002067524322399366</v>
+        <v>0.5188397257896734</v>
       </c>
       <c r="E61">
-        <v>0.2491836521716572</v>
+        <v>0.4771091450413515</v>
       </c>
       <c r="F61">
-        <v>0.6265634424358582</v>
+        <v>0.004051129168975107</v>
       </c>
       <c r="G61">
-        <v>0.1184280683328581</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0.005600986279853567</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1.709834753315065E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2910,13 +2910,13 @@
         <v>190</v>
       </c>
       <c r="D62">
-        <v>0.9273268168295793</v>
+        <v>0.02422439439014025</v>
       </c>
       <c r="E62">
-        <v>0.07267318317042074</v>
+        <v>0.9434764130896728</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.032299192520187</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.912356119587227</v>
+        <v>1.082825307793094E-05</v>
       </c>
       <c r="F63">
-        <v>0.087643880412773</v>
+        <v>0.9268768069647324</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.07301491050448831</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>9.745427770137843E-05</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>192</v>
       </c>
       <c r="D64">
-        <v>0.1253133419361589</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0.7331574622245861</v>
+        <v>0.05181095290824912</v>
       </c>
       <c r="F64">
-        <v>0.1362220008544698</v>
+        <v>0.7104627869667193</v>
       </c>
       <c r="G64">
-        <v>0.005307194984785205</v>
+        <v>0.1723838400571972</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>0.06534078524034144</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1.634827493002938E-06</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2997,16 +2997,16 @@
         <v>193</v>
       </c>
       <c r="D65">
-        <v>0.170814497665351</v>
+        <v>0.05567035500475429</v>
       </c>
       <c r="E65">
-        <v>0.6160232880569028</v>
+        <v>0.8134299419392195</v>
       </c>
       <c r="F65">
-        <v>0.2025381007272206</v>
+        <v>0.127154703029466</v>
       </c>
       <c r="G65">
-        <v>0.01062411355052563</v>
+        <v>0.003745000026560284</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         <v>194</v>
       </c>
       <c r="D66">
-        <v>0.7078278672985782</v>
+        <v>0.06685694786729858</v>
       </c>
       <c r="E66">
-        <v>0.2921308815165877</v>
+        <v>0.8888101611374407</v>
       </c>
       <c r="F66">
-        <v>4.125118483412322E-05</v>
+        <v>0.04408235071090048</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.0002505402843601896</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         <v>196</v>
       </c>
       <c r="D68">
-        <v>0.06593761125875332</v>
+        <v>0.005153559196974109</v>
       </c>
       <c r="E68">
-        <v>0.8260576619857168</v>
+        <v>0.6440909685466698</v>
       </c>
       <c r="F68">
-        <v>0.09762534443188231</v>
+        <v>0.3470954778489558</v>
       </c>
       <c r="G68">
-        <v>0.01009148415063507</v>
+        <v>0.003659911725558462</v>
       </c>
       <c r="H68">
-        <v>0.0002874020819618483</v>
+        <v>8.268184176117614E-08</v>
       </c>
       <c r="I68">
-        <v>4.960910505670568E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3113,13 +3113,13 @@
         <v>197</v>
       </c>
       <c r="D69">
-        <v>0.1709401709401709</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0.7094017094017094</v>
       </c>
       <c r="F69">
-        <v>0.1196581196581197</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3142,19 +3142,19 @@
         <v>198</v>
       </c>
       <c r="D70">
-        <v>0.01149264470738727</v>
+        <v>0.0002764897132501865</v>
       </c>
       <c r="E70">
-        <v>0.1735722470951924</v>
+        <v>0.3429038748534272</v>
       </c>
       <c r="F70">
-        <v>0.796187106918239</v>
+        <v>0.6548908698433002</v>
       </c>
       <c r="G70">
-        <v>0.01852147958639804</v>
+        <v>0.001928765590022386</v>
       </c>
       <c r="H70">
-        <v>0.0002265216927832854</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>199</v>
       </c>
       <c r="D71">
-        <v>0.2480335605663345</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0.7461982170949135</v>
+        <v>0.983744100681699</v>
       </c>
       <c r="F71">
-        <v>0.005768222338751967</v>
+        <v>0.016255899318301</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3203,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3229,22 +3229,22 @@
         <v>201</v>
       </c>
       <c r="D73">
-        <v>0.02511636740390045</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0.5032786357077088</v>
+        <v>0.06325706640530279</v>
       </c>
       <c r="F73">
-        <v>0.4433420887970196</v>
+        <v>0.7275949719107315</v>
       </c>
       <c r="G73">
-        <v>0.02705862204036783</v>
+        <v>0.2089916181555194</v>
       </c>
       <c r="H73">
-        <v>0.001167658933710005</v>
+        <v>0.0001563435284462133</v>
       </c>
       <c r="I73">
-        <v>3.662711729325603E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3258,19 +3258,19 @@
         <v>202</v>
       </c>
       <c r="D74">
-        <v>0.01655306718597858</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.7332035053554041</v>
+        <v>0.002921129503407984</v>
       </c>
       <c r="F74">
-        <v>0.2405063291139241</v>
+        <v>0.6864654333008764</v>
       </c>
       <c r="G74">
-        <v>0.009737098344693282</v>
+        <v>0.3047711781888997</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>0.005842259006815969</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3287,19 +3287,19 @@
         <v>203</v>
       </c>
       <c r="D75">
-        <v>0.03784614762222627</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0.2061209215769565</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.6291239355138863</v>
+        <v>0.7273904160851185</v>
       </c>
       <c r="G75">
-        <v>0.1266460343467443</v>
+        <v>0.2726095839148815</v>
       </c>
       <c r="H75">
-        <v>0.0002629609401865</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>204</v>
       </c>
       <c r="D76">
-        <v>0.947945205479452</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.05205479452054795</v>
+        <v>0.8172211350293542</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.182648401826484</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>0.0001304631441617743</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3374,22 +3374,22 @@
         <v>206</v>
       </c>
       <c r="D78">
-        <v>0.1318285361240939</v>
+        <v>0.002263798559658167</v>
       </c>
       <c r="E78">
-        <v>0.4609659817103942</v>
+        <v>0.2160559912843756</v>
       </c>
       <c r="F78">
-        <v>0.2990949522008367</v>
+        <v>0.7131248437743182</v>
       </c>
       <c r="G78">
-        <v>0.09978635401093226</v>
+        <v>0.06855536638164814</v>
       </c>
       <c r="H78">
-        <v>0.007946876193800021</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.0003772997599430277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3403,19 +3403,19 @@
         <v>207</v>
       </c>
       <c r="D79">
-        <v>0.2301329812553551</v>
+        <v>9.081707812022427E-05</v>
       </c>
       <c r="E79">
-        <v>0.7375586866222059</v>
+        <v>0.3533266608877776</v>
       </c>
       <c r="F79">
-        <v>0.03228202648601793</v>
+        <v>0.6256545092871423</v>
       </c>
       <c r="G79">
-        <v>2.630563642103048E-05</v>
+        <v>0.02087101720138092</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>5.699554557889937E-05</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3432,22 +3432,22 @@
         <v>208</v>
       </c>
       <c r="D80">
-        <v>0.002757341555379849</v>
+        <v>0.01567092677004882</v>
       </c>
       <c r="E80">
-        <v>0.3200160784409209</v>
+        <v>0.9643296968889242</v>
       </c>
       <c r="F80">
-        <v>0.5484004215251196</v>
+        <v>0.01999595903158576</v>
       </c>
       <c r="G80">
-        <v>0.1084747992651076</v>
+        <v>3.417309441214375E-06</v>
       </c>
       <c r="H80">
-        <v>0.01888576062687124</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0.001465598586600815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3461,22 +3461,22 @@
         <v>209</v>
       </c>
       <c r="D81">
-        <v>0.005739149004324382</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0.1866958517964871</v>
+        <v>0.009663125300304309</v>
       </c>
       <c r="F81">
-        <v>0.5559233356467888</v>
+        <v>0.853104479205595</v>
       </c>
       <c r="G81">
-        <v>0.2292990230099834</v>
+        <v>0.1372323954941007</v>
       </c>
       <c r="H81">
-        <v>0.02122150445785062</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0.001121136084565693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3490,16 +3490,16 @@
         <v>210</v>
       </c>
       <c r="D82">
-        <v>0.164898725899131</v>
+        <v>0.03327653466413172</v>
       </c>
       <c r="E82">
-        <v>0.8104917206962111</v>
+        <v>0.9487780193702176</v>
       </c>
       <c r="F82">
-        <v>0.02459893210409482</v>
+        <v>0.01794544596565071</v>
       </c>
       <c r="G82">
-        <v>1.062130056308066E-05</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3519,19 +3519,19 @@
         <v>211</v>
       </c>
       <c r="D83">
-        <v>0.0126384176974065</v>
+        <v>0.003100053873099772</v>
       </c>
       <c r="E83">
-        <v>0.6855498853933852</v>
+        <v>0.8953078863322866</v>
       </c>
       <c r="F83">
-        <v>0.285143416718845</v>
+        <v>0.09701058273839021</v>
       </c>
       <c r="G83">
-        <v>0.01616646271262818</v>
+        <v>0.004581477056223388</v>
       </c>
       <c r="H83">
-        <v>0.0005018174777351142</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>212</v>
       </c>
       <c r="D84">
-        <v>0.001734737467729054</v>
+        <v>3.714641258520458E-06</v>
       </c>
       <c r="E84">
-        <v>0.8117679835069929</v>
+        <v>0.2168124663360636</v>
       </c>
       <c r="F84">
-        <v>0.1849297004141825</v>
+        <v>0.6638955442878104</v>
       </c>
       <c r="G84">
-        <v>0.001567578611095634</v>
+        <v>0.1166471648000594</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>0.002641109934808046</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3577,19 +3577,19 @@
         <v>213</v>
       </c>
       <c r="D85">
-        <v>0.0120889748549323</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.1499032882011605</v>
+        <v>0.3467117988394584</v>
       </c>
       <c r="F85">
-        <v>0.683752417794971</v>
+        <v>0.6532882011605415</v>
       </c>
       <c r="G85">
-        <v>0.148936170212766</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0.005319148936170213</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>214</v>
       </c>
       <c r="D86">
-        <v>0.07619879168161958</v>
+        <v>0.05033426688815471</v>
       </c>
       <c r="E86">
-        <v>0.7100516846533207</v>
+        <v>0.6979980983599279</v>
       </c>
       <c r="F86">
-        <v>0.1854617026708054</v>
+        <v>0.2433285360701165</v>
       </c>
       <c r="G86">
-        <v>0.02545755901928648</v>
+        <v>0.00833909868180086</v>
       </c>
       <c r="H86">
-        <v>0.002741469442419893</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>8.879253254801271E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3635,19 +3635,19 @@
         <v>215</v>
       </c>
       <c r="D87">
-        <v>0.009358332564019333</v>
+        <v>0.02614972736504495</v>
       </c>
       <c r="E87">
-        <v>0.4946679094810257</v>
+        <v>0.8121707460161943</v>
       </c>
       <c r="F87">
-        <v>0.4695530335291858</v>
+        <v>0.1613013219296182</v>
       </c>
       <c r="G87">
-        <v>0.02589808723722964</v>
+        <v>0.0003782046891425474</v>
       </c>
       <c r="H87">
-        <v>0.0005226371885395045</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>1</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3693,16 +3693,16 @@
         <v>217</v>
       </c>
       <c r="D89">
-        <v>0.9853597438577282</v>
+        <v>0.0005308648119577299</v>
       </c>
       <c r="E89">
-        <v>0.01464025614227177</v>
+        <v>0.7138058030159757</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.2853978997660877</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.000265432405978865</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3722,19 +3722,19 @@
         <v>218</v>
       </c>
       <c r="D90">
-        <v>0.9783055198973042</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.02156611039794609</v>
+        <v>0.8985879332477535</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.1014120667522465</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0.0001283697047496791</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3751,22 +3751,22 @@
         <v>219</v>
       </c>
       <c r="D91">
-        <v>0.003977266711805207</v>
+        <v>0.01110900487314006</v>
       </c>
       <c r="E91">
-        <v>0.1353490733407175</v>
+        <v>0.9739126182364133</v>
       </c>
       <c r="F91">
-        <v>0.4445610159297371</v>
+        <v>0.01490779551162929</v>
       </c>
       <c r="G91">
-        <v>0.3112119193979601</v>
+        <v>7.058137881731825E-05</v>
       </c>
       <c r="H91">
-        <v>0.09076274890686924</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0.01413797571291082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3783,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.9010912468075226</v>
+        <v>0.0599024843278384</v>
       </c>
       <c r="F92">
-        <v>0.09890875319247736</v>
+        <v>0.9136289760854424</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.02646853958671929</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3809,22 +3809,22 @@
         <v>221</v>
       </c>
       <c r="D93">
-        <v>0.04049613451577701</v>
+        <v>0.003515054639349553</v>
       </c>
       <c r="E93">
-        <v>0.6741573551788267</v>
+        <v>0.514630435116733</v>
       </c>
       <c r="F93">
-        <v>0.2491047138926886</v>
+        <v>0.4715352811890015</v>
       </c>
       <c r="G93">
-        <v>0.03464488265219864</v>
+        <v>0.010319229054916</v>
       </c>
       <c r="H93">
-        <v>0.001512380308316555</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>8.453345219249036E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3838,22 +3838,22 @@
         <v>222</v>
       </c>
       <c r="D94">
-        <v>0.0004840621296238538</v>
+        <v>0.0007023891210779116</v>
       </c>
       <c r="E94">
-        <v>0.1441188946416318</v>
+        <v>0.9239273906805564</v>
       </c>
       <c r="F94">
-        <v>0.7088678186014596</v>
+        <v>0.07500779739255194</v>
       </c>
       <c r="G94">
-        <v>0.1419699332543198</v>
+        <v>0.0003624228058137359</v>
       </c>
       <c r="H94">
-        <v>0.004443266171792153</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0.0001160252011727278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3867,19 +3867,19 @@
         <v>223</v>
       </c>
       <c r="D95">
-        <v>0.05768255073617191</v>
+        <v>0.03600278551532034</v>
       </c>
       <c r="E95">
-        <v>0.6822348786311182</v>
+        <v>0.7336326104257859</v>
       </c>
       <c r="F95">
-        <v>0.2419816951850378</v>
+        <v>0.2290912256267409</v>
       </c>
       <c r="G95">
-        <v>0.01804367290091524</v>
+        <v>0.001273378432152805</v>
       </c>
       <c r="H95">
-        <v>5.72025467568643E-05</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -3896,22 +3896,22 @@
         <v>224</v>
       </c>
       <c r="D96">
-        <v>0.001054534498342874</v>
+        <v>0.0004155800978691131</v>
       </c>
       <c r="E96">
-        <v>0.173109889767379</v>
+        <v>0.9669250189608419</v>
       </c>
       <c r="F96">
-        <v>0.6530997080549813</v>
+        <v>0.03265940094128892</v>
       </c>
       <c r="G96">
-        <v>0.1571464192579817</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0.01498166252818153</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0.0006077858931335778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3925,16 +3925,16 @@
         <v>225</v>
       </c>
       <c r="D97">
-        <v>0.7724789490887017</v>
+        <v>0.0002697837061017811</v>
       </c>
       <c r="E97">
-        <v>0.2179644819374621</v>
+        <v>0.65009053318599</v>
       </c>
       <c r="F97">
-        <v>0.008871733412193186</v>
+        <v>0.3482285067990682</v>
       </c>
       <c r="G97">
-        <v>0.0006848355616429827</v>
+        <v>0.001411176308840086</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3954,22 +3954,22 @@
         <v>226</v>
       </c>
       <c r="D98">
-        <v>0.00266810487935689</v>
+        <v>0.0002614021672342899</v>
       </c>
       <c r="E98">
-        <v>0.3136976237942074</v>
+        <v>0.870267907175189</v>
       </c>
       <c r="F98">
-        <v>0.4404115732053765</v>
+        <v>0.1294526629219054</v>
       </c>
       <c r="G98">
-        <v>0.1785271640418784</v>
+        <v>1.802773567133034E-05</v>
       </c>
       <c r="H98">
-        <v>0.057556550753334</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0.007138983325846815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
         <v>1</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4012,16 +4012,16 @@
         <v>228</v>
       </c>
       <c r="D100">
-        <v>0.09308510638297872</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0.4946808510638298</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="F100">
-        <v>0.4069148936170213</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="G100">
-        <v>0.005319148936170213</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4041,13 +4041,13 @@
         <v>229</v>
       </c>
       <c r="D101">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>230</v>
       </c>
       <c r="D102">
-        <v>0.3372324913897771</v>
+        <v>0.0125965933300564</v>
       </c>
       <c r="E102">
-        <v>0.6380767708928683</v>
+        <v>0.8437935820742084</v>
       </c>
       <c r="F102">
-        <v>0.02462627880693499</v>
+        <v>0.1418274530830036</v>
       </c>
       <c r="G102">
-        <v>6.445891041963412E-05</v>
+        <v>0.001782371512731627</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0.9425742574257425</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0.05742574257425743</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4128,22 +4128,22 @@
         <v>232</v>
       </c>
       <c r="D104">
-        <v>0.2115233002981087</v>
+        <v>0.04975550945094161</v>
       </c>
       <c r="E104">
-        <v>0.5747145959149766</v>
+        <v>0.7125933683584216</v>
       </c>
       <c r="F104">
-        <v>0.1781706729773372</v>
+        <v>0.2163705188602309</v>
       </c>
       <c r="G104">
-        <v>0.03240500227403052</v>
+        <v>0.02127898576479356</v>
       </c>
       <c r="H104">
-        <v>0.003003643391395924</v>
+        <v>1.617565612280486E-06</v>
       </c>
       <c r="I104">
-        <v>0.0001827851441508889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4160,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>1</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>234</v>
       </c>
       <c r="D106">
-        <v>0.1994562380257094</v>
+        <v>1.059964862164819E-05</v>
       </c>
       <c r="E106">
-        <v>0.7985006797024679</v>
+        <v>0.7536827154179839</v>
       </c>
       <c r="F106">
-        <v>0.002043082271822689</v>
+        <v>0.2455885587392778</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.000718126194116665</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>235</v>
       </c>
       <c r="D107">
-        <v>0.3941146661540881</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0.6057979625002184</v>
+        <v>0.5590018697467979</v>
       </c>
       <c r="F107">
-        <v>8.737134569346637E-05</v>
+        <v>0.4409981302532022</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4244,22 +4244,22 @@
         <v>236</v>
       </c>
       <c r="D108">
-        <v>0.00325493886476474</v>
+        <v>6.523118328704238E-05</v>
       </c>
       <c r="E108">
-        <v>0.2528832533229846</v>
+        <v>0.107847344461707</v>
       </c>
       <c r="F108">
-        <v>0.5296043808894361</v>
+        <v>0.778282519234921</v>
       </c>
       <c r="G108">
-        <v>0.1768067559683261</v>
+        <v>0.1138006005242335</v>
       </c>
       <c r="H108">
-        <v>0.0339477209798856</v>
+        <v>4.304595851429192E-06</v>
       </c>
       <c r="I108">
-        <v>0.003502949974602868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4273,22 +4273,22 @@
         <v>237</v>
       </c>
       <c r="D109">
-        <v>0.0007117319915254237</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0.01378773834745763</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.6043763241525424</v>
+        <v>0.1094908633474576</v>
       </c>
       <c r="G109">
-        <v>0.3267511917372881</v>
+        <v>0.7707395391949152</v>
       </c>
       <c r="H109">
-        <v>0.05233712923728814</v>
+        <v>0.1194054555084746</v>
       </c>
       <c r="I109">
-        <v>0.002035884533898305</v>
+        <v>0.0003641419491525424</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4302,22 +4302,22 @@
         <v>238</v>
       </c>
       <c r="D110">
-        <v>0.00233185927260604</v>
+        <v>4.175218035104816E-07</v>
       </c>
       <c r="E110">
-        <v>0.493419751996224</v>
+        <v>0.03209657112306476</v>
       </c>
       <c r="F110">
-        <v>0.4647470684228469</v>
+        <v>0.6570640827077291</v>
       </c>
       <c r="G110">
-        <v>0.03606678595264593</v>
+        <v>0.3053675141732995</v>
       </c>
       <c r="H110">
-        <v>0.003380256521220859</v>
+        <v>0.005464734125246938</v>
       </c>
       <c r="I110">
-        <v>5.427783445636261E-05</v>
+        <v>6.680348856167705E-06</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4331,13 +4331,13 @@
         <v>239</v>
       </c>
       <c r="D111">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0.2153846153846154</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.7076923076923077</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4360,13 +4360,13 @@
         <v>240</v>
       </c>
       <c r="D112">
-        <v>0.363880742913001</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0.636119257086999</v>
+        <v>0.2324046920821114</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.7675953079178885</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4389,22 +4389,22 @@
         <v>241</v>
       </c>
       <c r="D113">
-        <v>0.0926682433885186</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>0.4506964500514275</v>
+        <v>0.0001336176096390582</v>
       </c>
       <c r="F113">
-        <v>0.4110943883035906</v>
+        <v>0.3132519621455502</v>
       </c>
       <c r="G113">
-        <v>0.04420438499131253</v>
+        <v>0.6861903295707389</v>
       </c>
       <c r="H113">
-        <v>0.0008251640158756908</v>
+        <v>0.0004240906740717933</v>
       </c>
       <c r="I113">
-        <v>0.000511369249275076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4421,10 +4421,10 @@
         <v>0</v>
       </c>
       <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
         <v>1</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4450,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0.9453748006379585</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.05462519936204147</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4476,13 +4476,13 @@
         <v>244</v>
       </c>
       <c r="D116">
-        <v>0.0499001996007984</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>0.7964071856287425</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.1536926147704591</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4505,22 +4505,22 @@
         <v>245</v>
       </c>
       <c r="D117">
-        <v>0.00273695074349338</v>
+        <v>0.0001874777580653792</v>
       </c>
       <c r="E117">
-        <v>0.2693808406712228</v>
+        <v>0.8302925887909256</v>
       </c>
       <c r="F117">
-        <v>0.5673694400776554</v>
+        <v>0.1691008214968509</v>
       </c>
       <c r="G117">
-        <v>0.144818522652814</v>
+        <v>0.0004191119541581332</v>
       </c>
       <c r="H117">
-        <v>0.01493685068051433</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>0.000757395174300055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4534,16 +4534,16 @@
         <v>246</v>
       </c>
       <c r="D118">
-        <v>0.5485893416927899</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0.3822660098522168</v>
+        <v>0.4220331392745186</v>
       </c>
       <c r="F118">
-        <v>0.06914464845499328</v>
+        <v>0.5582624272279445</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -4566,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
         <v>1</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4592,22 +4592,22 @@
         <v>248</v>
       </c>
       <c r="D120">
-        <v>0.006469353292866597</v>
+        <v>2.281958833462644E-05</v>
       </c>
       <c r="E120">
-        <v>0.1753913559399388</v>
+        <v>0.465028980877185</v>
       </c>
       <c r="F120">
-        <v>0.4707338779608416</v>
+        <v>0.5324038154351696</v>
       </c>
       <c r="G120">
-        <v>0.3166217881429419</v>
+        <v>0.002544384099310848</v>
       </c>
       <c r="H120">
-        <v>0.02972251380585094</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0.00106111085756013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4621,16 +4621,16 @@
         <v>249</v>
       </c>
       <c r="D121">
-        <v>0.336405529953917</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0.5216589861751152</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="F121">
-        <v>0.1373271889400922</v>
+        <v>0.8820276497695853</v>
       </c>
       <c r="G121">
-        <v>0.004608294930875576</v>
+        <v>0.008294930875576038</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -4650,16 +4650,16 @@
         <v>250</v>
       </c>
       <c r="D122">
-        <v>0.2306889352818371</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>0.4112734864300626</v>
+        <v>0.2738343771746695</v>
       </c>
       <c r="F122">
-        <v>0.3448155880306193</v>
+        <v>0.7237299930410578</v>
       </c>
       <c r="G122">
-        <v>0.01322199025748086</v>
+        <v>0.002435629784272791</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -4679,16 +4679,16 @@
         <v>251</v>
       </c>
       <c r="D123">
-        <v>0.4359295695218999</v>
+        <v>9.399085155711511E-05</v>
       </c>
       <c r="E123">
-        <v>0.5000939908515571</v>
+        <v>0.794254025941475</v>
       </c>
       <c r="F123">
-        <v>0.06184598032458174</v>
+        <v>0.1851306472836644</v>
       </c>
       <c r="G123">
-        <v>0.002130459301961276</v>
+        <v>0.02052133592330347</v>
       </c>
       <c r="H123">
         <v>0</v>

--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_hists_summary.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_hists_summary.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="tot_c_hist" sheetId="1" r:id="rId1"/>
+    <sheet name="tot_co2_hist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1170,16 +1170,16 @@
         <v>130</v>
       </c>
       <c r="D2">
-        <v>0.001083510843494742</v>
+        <v>0.001157310343670854</v>
       </c>
       <c r="E2">
-        <v>0.2670233642508512</v>
+        <v>0.2669495647506751</v>
       </c>
       <c r="F2">
-        <v>0.6372217842706429</v>
+        <v>0.6363630264504118</v>
       </c>
       <c r="G2">
-        <v>0.09466127706680533</v>
+        <v>0.09552003488703645</v>
       </c>
       <c r="H2">
         <v>1.006356820583351E-05</v>
@@ -1234,10 +1234,10 @@
         <v>0.5873233655819408</v>
       </c>
       <c r="F4">
-        <v>0.4080093814130754</v>
+        <v>0.4079624743476986</v>
       </c>
       <c r="G4">
-        <v>0.003998827323365582</v>
+        <v>0.004045734388742304</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0008068287311653579</v>
+        <v>0.0008051010465161815</v>
       </c>
       <c r="F6">
-        <v>0.2330750252817854</v>
+        <v>0.2324674561801583</v>
       </c>
       <c r="G6">
-        <v>0.765027401078536</v>
+        <v>0.765655702395953</v>
       </c>
       <c r="H6">
-        <v>0.001090744908513339</v>
+        <v>0.001071740377372399</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>0.6395733173076923</v>
       </c>
       <c r="F7">
-        <v>0.3209259815705128</v>
+        <v>0.3207757411858974</v>
       </c>
       <c r="G7">
-        <v>0.03847405849358974</v>
+        <v>0.03863681891025641</v>
       </c>
       <c r="H7">
-        <v>0.0008638822115384615</v>
+        <v>0.0008513621794871795</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07959127497805353</v>
+        <v>0.07936251097323276</v>
       </c>
       <c r="F8">
-        <v>0.8232435388117663</v>
+        <v>0.8229087622193456</v>
       </c>
       <c r="G8">
-        <v>0.09716518621018018</v>
+        <v>0.09772872680742163</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>137</v>
       </c>
       <c r="D9">
-        <v>1.215267228583085E-05</v>
+        <v>1.388876832666383E-05</v>
       </c>
       <c r="E9">
-        <v>0.6573102664039374</v>
+        <v>0.6569404779472401</v>
       </c>
       <c r="F9">
-        <v>0.3404657945677555</v>
+        <v>0.3408321108323712</v>
       </c>
       <c r="G9">
-        <v>0.002211786356021215</v>
+        <v>0.002213522452062048</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1408,10 +1408,10 @@
         <v>0.0004200192714724558</v>
       </c>
       <c r="F10">
-        <v>0.4504418438022451</v>
+        <v>0.448382925804831</v>
       </c>
       <c r="G10">
-        <v>0.5490969585663342</v>
+        <v>0.5511558765637482</v>
       </c>
       <c r="H10">
         <v>4.117835994827998E-05</v>
@@ -1431,16 +1431,16 @@
         <v>139</v>
       </c>
       <c r="D11">
-        <v>0.0002388313876363221</v>
+        <v>0.0002440233743240682</v>
       </c>
       <c r="E11">
-        <v>0.4285232172664709</v>
+        <v>0.4284661054129057</v>
       </c>
       <c r="F11">
-        <v>0.569005397070162</v>
+        <v>0.5690339529969445</v>
       </c>
       <c r="G11">
-        <v>0.002232554275730837</v>
+        <v>0.002255918215825695</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>141</v>
       </c>
       <c r="D13">
-        <v>0.03947432920824068</v>
+        <v>0.04009153338472988</v>
       </c>
       <c r="E13">
-        <v>0.9509445229256814</v>
+        <v>0.9503273187491923</v>
       </c>
       <c r="F13">
         <v>0.009581147866077834</v>
@@ -1518,13 +1518,13 @@
         <v>142</v>
       </c>
       <c r="D14">
-        <v>0.03277767532818417</v>
+        <v>0.0328462927304151</v>
       </c>
       <c r="E14">
-        <v>0.9390248609425458</v>
+        <v>0.9388919147257234</v>
       </c>
       <c r="F14">
-        <v>0.02811169197648139</v>
+        <v>0.02817602079107288</v>
       </c>
       <c r="G14">
         <v>8.577175278865411E-05</v>
@@ -1547,10 +1547,10 @@
         <v>143</v>
       </c>
       <c r="D15">
-        <v>0.0008292898103220115</v>
+        <v>0.0008645787384208204</v>
       </c>
       <c r="E15">
-        <v>0.7910189677988531</v>
+        <v>0.7909836788707543</v>
       </c>
       <c r="F15">
         <v>0.2081164534627261</v>
@@ -1582,13 +1582,13 @@
         <v>0.1787499609648059</v>
       </c>
       <c r="F16">
-        <v>0.6389083597771751</v>
+        <v>0.6380940255734571</v>
       </c>
       <c r="G16">
-        <v>0.1783396710474164</v>
+        <v>0.1791732225774759</v>
       </c>
       <c r="H16">
-        <v>0.004002008210602679</v>
+        <v>0.00398279088426125</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>0.1284106079021299</v>
       </c>
       <c r="F17">
-        <v>0.8310386738129869</v>
+        <v>0.8305007073263065</v>
       </c>
       <c r="G17">
-        <v>0.04055071828488314</v>
+        <v>0.04108868477156349</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>147</v>
       </c>
       <c r="D19">
-        <v>0.003955720417726408</v>
+        <v>0.004025681574709041</v>
       </c>
       <c r="E19">
-        <v>0.9330901697286819</v>
+        <v>0.9330202085716992</v>
       </c>
       <c r="F19">
         <v>0.06294026337460555</v>
@@ -1698,10 +1698,10 @@
         <v>0.002310410437618918</v>
       </c>
       <c r="F20">
-        <v>0.6167436803479206</v>
+        <v>0.6159282413699375</v>
       </c>
       <c r="G20">
-        <v>0.3809459092144605</v>
+        <v>0.3817613481924436</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1724,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01044688354003685</v>
+        <v>0.01043079766290078</v>
       </c>
       <c r="F21">
-        <v>0.4960884508764122</v>
+        <v>0.4949803126737051</v>
       </c>
       <c r="G21">
-        <v>0.4919525931327603</v>
+        <v>0.4930803918519671</v>
       </c>
       <c r="H21">
-        <v>0.001512072450790621</v>
+        <v>0.00150849781142705</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>150</v>
       </c>
       <c r="D22">
-        <v>0.001380027242096208</v>
+        <v>0.001409897961622099</v>
       </c>
       <c r="E22">
-        <v>0.2469472124644538</v>
+        <v>0.2465290223910914</v>
       </c>
       <c r="F22">
-        <v>0.7262288814012952</v>
+        <v>0.7264260281501661</v>
       </c>
       <c r="G22">
-        <v>0.02544387889215476</v>
+        <v>0.02563505149712046</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1782,19 +1782,19 @@
         <v>1.665052816944518E-06</v>
       </c>
       <c r="E23">
-        <v>0.0202579467175916</v>
+        <v>0.02024599751502294</v>
       </c>
       <c r="F23">
-        <v>0.4448590498509957</v>
+        <v>0.4437515611910665</v>
       </c>
       <c r="G23">
-        <v>0.5299784107945831</v>
+        <v>0.5312055873687657</v>
       </c>
       <c r="H23">
-        <v>0.004899564830284268</v>
+        <v>0.004791858766694072</v>
       </c>
       <c r="I23">
-        <v>3.362753728338928E-06</v>
+        <v>3.330105633889035E-06</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1808,19 +1808,19 @@
         <v>152</v>
       </c>
       <c r="D24">
-        <v>0.5756151707910142</v>
+        <v>0.5757861135559844</v>
       </c>
       <c r="E24">
-        <v>0.2957115682280332</v>
+        <v>0.295540625463063</v>
       </c>
       <c r="F24">
-        <v>0.1029073213491892</v>
+        <v>0.1028397029969882</v>
       </c>
       <c r="G24">
-        <v>0.0257567899537428</v>
+        <v>0.02582485463170091</v>
       </c>
       <c r="H24">
-        <v>9.149678020598826E-06</v>
+        <v>8.703352263496445E-06</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>153</v>
       </c>
       <c r="D25">
-        <v>3.704012371401321E-05</v>
+        <v>4.630015464251651E-05</v>
       </c>
       <c r="E25">
-        <v>0.312739024548342</v>
+        <v>0.3124890037132724</v>
       </c>
       <c r="F25">
-        <v>0.6741858117806113</v>
+        <v>0.6740839514403978</v>
       </c>
       <c r="G25">
-        <v>0.01303812354733265</v>
+        <v>0.01338074469168727</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1895,16 +1895,16 @@
         <v>155</v>
       </c>
       <c r="D27">
-        <v>0.001427132303559436</v>
+        <v>0.001448119543317663</v>
       </c>
       <c r="E27">
-        <v>0.5502364562346094</v>
+        <v>0.5497694901499888</v>
       </c>
       <c r="F27">
-        <v>0.4263715161182001</v>
+        <v>0.4265569034027311</v>
       </c>
       <c r="G27">
-        <v>0.02196489534363107</v>
+        <v>0.02222548690396239</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1927,13 +1927,13 @@
         <v>2.199905404067625E-05</v>
       </c>
       <c r="E28">
-        <v>0.2644616281499895</v>
+        <v>0.2642746361906438</v>
       </c>
       <c r="F28">
-        <v>0.7087545235554871</v>
+        <v>0.7086115297042227</v>
       </c>
       <c r="G28">
-        <v>0.02676184924048266</v>
+        <v>0.0270918350510928</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>158</v>
       </c>
       <c r="D30">
-        <v>0.00430963940865201</v>
+        <v>0.004336915607440947</v>
       </c>
       <c r="E30">
-        <v>0.9399378102667613</v>
+        <v>0.9398014292728165</v>
       </c>
       <c r="F30">
-        <v>0.05575255032458677</v>
+        <v>0.05586165511974251</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>159</v>
       </c>
       <c r="D31">
-        <v>0.02589396868496288</v>
+        <v>0.02594232038247741</v>
       </c>
       <c r="E31">
-        <v>0.7733554615479254</v>
+        <v>0.7732897307705213</v>
       </c>
       <c r="F31">
-        <v>0.2002770328576456</v>
+        <v>0.2002882174140101</v>
       </c>
       <c r="G31">
-        <v>0.0004735369094661784</v>
+        <v>0.0004797314329911719</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.04926411433439024</v>
+        <v>0.04916946666035682</v>
       </c>
       <c r="F32">
-        <v>0.9416970327954191</v>
+        <v>0.9413184420992854</v>
       </c>
       <c r="G32">
-        <v>0.009038852870190715</v>
+        <v>0.009512091240357769</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>1.812319459000894E-07</v>
       </c>
       <c r="E34">
-        <v>0.01610463317657374</v>
+        <v>0.01609774636262954</v>
       </c>
       <c r="F34">
-        <v>0.6535222156837763</v>
+        <v>0.652452584739074</v>
       </c>
       <c r="G34">
-        <v>0.329288296711492</v>
+        <v>0.3303918180300776</v>
       </c>
       <c r="H34">
-        <v>0.001084310732320235</v>
+        <v>0.001057307172381121</v>
       </c>
       <c r="I34">
         <v>3.624638918001787E-07</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.1622993551927562</v>
+        <v>0.1620249691315681</v>
       </c>
       <c r="F35">
-        <v>0.79654273562903</v>
+        <v>0.7961311565372479</v>
       </c>
       <c r="G35">
-        <v>0.04115790917821375</v>
+        <v>0.04184387433118398</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0.1436179935453018</v>
       </c>
       <c r="F36">
-        <v>0.8305349104768924</v>
+        <v>0.8300165455062313</v>
       </c>
       <c r="G36">
-        <v>0.02584675769307404</v>
+        <v>0.02636512266373517</v>
       </c>
       <c r="H36">
         <v>1.127615772593276E-07</v>
@@ -2185,16 +2185,16 @@
         <v>165</v>
       </c>
       <c r="D37">
-        <v>0.0006754575851269723</v>
+        <v>0.0006991359875576226</v>
       </c>
       <c r="E37">
-        <v>0.4982259891652616</v>
+        <v>0.4977486824215279</v>
       </c>
       <c r="F37">
-        <v>0.4777990052578516</v>
+        <v>0.4780856385504331</v>
       </c>
       <c r="G37">
-        <v>0.02329954799175992</v>
+        <v>0.02346654304048134</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2243,16 +2243,16 @@
         <v>167</v>
       </c>
       <c r="D39">
-        <v>0.004591641014605301</v>
+        <v>0.004659474733109404</v>
       </c>
       <c r="E39">
-        <v>0.7582301013295408</v>
+        <v>0.7581061293612403</v>
       </c>
       <c r="F39">
-        <v>0.2360765445035975</v>
+        <v>0.2361291741127818</v>
       </c>
       <c r="G39">
-        <v>0.00110054360538553</v>
+        <v>0.001104052245997811</v>
       </c>
       <c r="H39">
         <v>1.169546870760393E-06</v>
@@ -2330,16 +2330,16 @@
         <v>170</v>
       </c>
       <c r="D42">
-        <v>0.01356909957361425</v>
+        <v>0.01368196639077</v>
       </c>
       <c r="E42">
-        <v>0.7897667419112114</v>
+        <v>0.7896538750940557</v>
       </c>
       <c r="F42">
-        <v>0.195422623526461</v>
+        <v>0.1954100827689992</v>
       </c>
       <c r="G42">
-        <v>0.001241534988713318</v>
+        <v>0.001254075746175069</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>172</v>
       </c>
       <c r="D44">
-        <v>0.003869541182974019</v>
+        <v>0.004422332780541736</v>
       </c>
       <c r="E44">
-        <v>0.6058595909342178</v>
+        <v>0.6053067993366501</v>
       </c>
       <c r="F44">
         <v>0.3902708678828082</v>
@@ -2417,16 +2417,16 @@
         <v>173</v>
       </c>
       <c r="D45">
-        <v>0.0004924699207937074</v>
+        <v>0.000494182859648642</v>
       </c>
       <c r="E45">
-        <v>0.6050040082769206</v>
+        <v>0.6047830391646339</v>
       </c>
       <c r="F45">
-        <v>0.3885407816482583</v>
+        <v>0.3887223531668814</v>
       </c>
       <c r="G45">
-        <v>0.005961883684599994</v>
+        <v>0.005999568339408556</v>
       </c>
       <c r="H45">
         <v>8.564694274673171E-07</v>
@@ -2446,19 +2446,19 @@
         <v>174</v>
       </c>
       <c r="D46">
-        <v>2.231328521845264E-06</v>
+        <v>2.603216608819475E-06</v>
       </c>
       <c r="E46">
-        <v>0.03384739423595778</v>
+        <v>0.03377524794708479</v>
       </c>
       <c r="F46">
-        <v>0.8124348963417741</v>
+        <v>0.8113158850880686</v>
       </c>
       <c r="G46">
-        <v>0.1536887021514841</v>
+        <v>0.1548802315821495</v>
       </c>
       <c r="H46">
-        <v>2.677594226214317E-05</v>
+        <v>2.603216608819475E-05</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2504,16 +2504,16 @@
         <v>176</v>
       </c>
       <c r="D48">
-        <v>0.0004221288983587312</v>
+        <v>0.0004303543250609668</v>
       </c>
       <c r="E48">
-        <v>0.3702392875332801</v>
+        <v>0.3701863157853177</v>
       </c>
       <c r="F48">
-        <v>0.6070881463046777</v>
+        <v>0.6070029308840426</v>
       </c>
       <c r="G48">
-        <v>0.02225043726368349</v>
+        <v>0.02238039900557881</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>177</v>
       </c>
       <c r="D49">
-        <v>0.002031230163767932</v>
+        <v>0.002158182049003428</v>
       </c>
       <c r="E49">
-        <v>0.8776818585755999</v>
+        <v>0.8775549066903644</v>
       </c>
       <c r="F49">
         <v>0.1202869112606322</v>
@@ -2591,16 +2591,16 @@
         <v>179</v>
       </c>
       <c r="D51">
-        <v>4.833301959267983E-05</v>
+        <v>5.850839213850717E-05</v>
       </c>
       <c r="E51">
-        <v>0.4835489664365337</v>
+        <v>0.4834370373385296</v>
       </c>
       <c r="F51">
-        <v>0.5121086933295346</v>
+        <v>0.5122053593687199</v>
       </c>
       <c r="G51">
-        <v>0.004294007214339135</v>
+        <v>0.004299094900612048</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2620,16 +2620,16 @@
         <v>180</v>
       </c>
       <c r="D52">
-        <v>0.0001404935974881052</v>
+        <v>0.0001427555695406865</v>
       </c>
       <c r="E52">
-        <v>0.08339539095547961</v>
+        <v>0.08329234556197314</v>
       </c>
       <c r="F52">
-        <v>0.8673853538314916</v>
+        <v>0.8670644051302532</v>
       </c>
       <c r="G52">
-        <v>0.04907725363417226</v>
+        <v>0.04949898575686464</v>
       </c>
       <c r="H52">
         <v>1.507981368387533E-06</v>
@@ -2739,13 +2739,13 @@
         <v>9.224808585221857E-06</v>
       </c>
       <c r="E56">
-        <v>0.2435663109990468</v>
+        <v>0.2435128071092525</v>
       </c>
       <c r="F56">
-        <v>0.6240410811475662</v>
+        <v>0.6236696288552013</v>
       </c>
       <c r="G56">
-        <v>0.1323833830448018</v>
+        <v>0.132808339226961</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.1159632260760552</v>
+        <v>0.1158587547012119</v>
       </c>
       <c r="F57">
-        <v>0.8829920601755119</v>
+        <v>0.8830965315503552</v>
       </c>
       <c r="G57">
         <v>0.001044713748432929</v>
@@ -2794,19 +2794,19 @@
         <v>186</v>
       </c>
       <c r="D58">
-        <v>0.004217553927428939</v>
+        <v>0.004300442898874639</v>
       </c>
       <c r="E58">
-        <v>0.6844593505689852</v>
+        <v>0.6843073421601482</v>
       </c>
       <c r="F58">
-        <v>0.2717842408226282</v>
+        <v>0.2717574264668381</v>
       </c>
       <c r="G58">
-        <v>0.03950307201022424</v>
+        <v>0.03960045522804296</v>
       </c>
       <c r="H58">
-        <v>3.578267073338984E-05</v>
+        <v>3.433324609608798E-05</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2858,10 +2858,10 @@
         <v>0.1646464646464647</v>
       </c>
       <c r="F60">
-        <v>0.3232323232323233</v>
+        <v>0.3227272727272728</v>
       </c>
       <c r="G60">
-        <v>0.5116161616161616</v>
+        <v>0.5121212121212121</v>
       </c>
       <c r="H60">
         <v>0.0005050505050505051</v>
@@ -2881,10 +2881,10 @@
         <v>189</v>
       </c>
       <c r="D61">
-        <v>0.5188397257896734</v>
+        <v>0.5188695987646739</v>
       </c>
       <c r="E61">
-        <v>0.4771091450413515</v>
+        <v>0.477079272066351</v>
       </c>
       <c r="F61">
         <v>0.004051129168975107</v>
@@ -2910,10 +2910,10 @@
         <v>190</v>
       </c>
       <c r="D62">
-        <v>0.02422439439014025</v>
+        <v>0.02464938376540586</v>
       </c>
       <c r="E62">
-        <v>0.9434764130896728</v>
+        <v>0.9430514237144071</v>
       </c>
       <c r="F62">
         <v>0.032299192520187</v>
@@ -2945,10 +2945,10 @@
         <v>1.082825307793094E-05</v>
       </c>
       <c r="F63">
-        <v>0.9268768069647324</v>
+        <v>0.9266602419031738</v>
       </c>
       <c r="G63">
-        <v>0.07301491050448831</v>
+        <v>0.07323147556604694</v>
       </c>
       <c r="H63">
         <v>9.745427770137843E-05</v>
@@ -2974,13 +2974,13 @@
         <v>0.05181095290824912</v>
       </c>
       <c r="F64">
-        <v>0.7104627869667193</v>
+        <v>0.7095761655230141</v>
       </c>
       <c r="G64">
-        <v>0.1723838400571972</v>
+        <v>0.173610505619447</v>
       </c>
       <c r="H64">
-        <v>0.06534078524034144</v>
+        <v>0.06500074112179682</v>
       </c>
       <c r="I64">
         <v>1.634827493002938E-06</v>
@@ -2997,16 +2997,16 @@
         <v>193</v>
       </c>
       <c r="D65">
-        <v>0.05567035500475429</v>
+        <v>0.05662121316752634</v>
       </c>
       <c r="E65">
-        <v>0.8134299419392195</v>
+        <v>0.8124790837764474</v>
       </c>
       <c r="F65">
-        <v>0.127154703029466</v>
+        <v>0.1269900292694328</v>
       </c>
       <c r="G65">
-        <v>0.003745000026560284</v>
+        <v>0.003909673786593431</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         <v>194</v>
       </c>
       <c r="D66">
-        <v>0.06685694786729858</v>
+        <v>0.06696614218009479</v>
       </c>
       <c r="E66">
-        <v>0.8888101611374407</v>
+        <v>0.8886187677725118</v>
       </c>
       <c r="F66">
-        <v>0.04408235071090048</v>
+        <v>0.04416363981042654</v>
       </c>
       <c r="G66">
-        <v>0.0002505402843601896</v>
+        <v>0.0002514502369668246</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3084,16 +3084,16 @@
         <v>196</v>
       </c>
       <c r="D68">
-        <v>0.005153559196974109</v>
+        <v>0.005259226590744892</v>
       </c>
       <c r="E68">
-        <v>0.6440909685466698</v>
+        <v>0.6437888490968745</v>
       </c>
       <c r="F68">
-        <v>0.3470954778489558</v>
+        <v>0.3472797756742415</v>
       </c>
       <c r="G68">
-        <v>0.003659911725558462</v>
+        <v>0.003672065956297355</v>
       </c>
       <c r="H68">
         <v>8.268184176117614E-08</v>
@@ -3145,13 +3145,13 @@
         <v>0.0002764897132501865</v>
       </c>
       <c r="E70">
-        <v>0.3429038748534272</v>
+        <v>0.3428572380343247</v>
       </c>
       <c r="F70">
-        <v>0.6548908698433002</v>
+        <v>0.6549008634473936</v>
       </c>
       <c r="G70">
-        <v>0.001928765590022386</v>
+        <v>0.001965408805031447</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0.06325706640530279</v>
+        <v>0.06315295043299696</v>
       </c>
       <c r="F73">
-        <v>0.7275949719107315</v>
+        <v>0.7270645569899292</v>
       </c>
       <c r="G73">
-        <v>0.2089916181555194</v>
+        <v>0.2096261490486276</v>
       </c>
       <c r="H73">
         <v>0.0001563435284462133</v>
@@ -3264,13 +3264,13 @@
         <v>0.002921129503407984</v>
       </c>
       <c r="F74">
-        <v>0.6864654333008764</v>
+        <v>0.6835443037974683</v>
       </c>
       <c r="G74">
-        <v>0.3047711781888997</v>
+        <v>0.308666017526777</v>
       </c>
       <c r="H74">
-        <v>0.005842259006815969</v>
+        <v>0.004868549172346641</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.7273904160851185</v>
+        <v>0.7207152537573073</v>
       </c>
       <c r="G75">
-        <v>0.2726095839148815</v>
+        <v>0.2792847462426927</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.8172211350293542</v>
+        <v>0.8166992824527071</v>
       </c>
       <c r="F76">
-        <v>0.182648401826484</v>
+        <v>0.1831702544031311</v>
       </c>
       <c r="G76">
         <v>0.0001304631441617743</v>
@@ -3374,16 +3374,16 @@
         <v>206</v>
       </c>
       <c r="D78">
-        <v>0.002263798559658167</v>
+        <v>0.002292096041653893</v>
       </c>
       <c r="E78">
-        <v>0.2160559912843756</v>
+        <v>0.2156268128074403</v>
       </c>
       <c r="F78">
-        <v>0.7131248437743182</v>
+        <v>0.7125588941344037</v>
       </c>
       <c r="G78">
-        <v>0.06855536638164814</v>
+        <v>0.06952219701650215</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3403,19 +3403,19 @@
         <v>207</v>
       </c>
       <c r="D79">
-        <v>9.081707812022427E-05</v>
+        <v>9.269605215029788E-05</v>
       </c>
       <c r="E79">
-        <v>0.3533266608877776</v>
+        <v>0.3532201856927402</v>
       </c>
       <c r="F79">
-        <v>0.6256545092871423</v>
+        <v>0.6256726727027664</v>
       </c>
       <c r="G79">
-        <v>0.02087101720138092</v>
+        <v>0.02095870265611769</v>
       </c>
       <c r="H79">
-        <v>5.699554557889937E-05</v>
+        <v>5.574289622551697E-05</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>208</v>
       </c>
       <c r="D80">
-        <v>0.01567092677004882</v>
+        <v>0.01632491436436122</v>
       </c>
       <c r="E80">
-        <v>0.9643296968889242</v>
+        <v>0.9636757092946118</v>
       </c>
       <c r="F80">
         <v>0.01999595903158576</v>
@@ -3467,10 +3467,10 @@
         <v>0.009663125300304309</v>
       </c>
       <c r="F81">
-        <v>0.853104479205595</v>
+        <v>0.85163632480914</v>
       </c>
       <c r="G81">
-        <v>0.1372323954941007</v>
+        <v>0.1387005498905558</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>210</v>
       </c>
       <c r="D82">
-        <v>0.03327653466413172</v>
+        <v>0.03416113726817115</v>
       </c>
       <c r="E82">
-        <v>0.9487780193702176</v>
+        <v>0.9478934167661781</v>
       </c>
       <c r="F82">
         <v>0.01794544596565071</v>
@@ -3519,16 +3519,16 @@
         <v>211</v>
       </c>
       <c r="D83">
-        <v>0.003100053873099772</v>
+        <v>0.003146718355125763</v>
       </c>
       <c r="E83">
-        <v>0.8953078863322866</v>
+        <v>0.8952612218502607</v>
       </c>
       <c r="F83">
-        <v>0.09701058273839021</v>
+        <v>0.09690158286619517</v>
       </c>
       <c r="G83">
-        <v>0.004581477056223388</v>
+        <v>0.004690476928418426</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0.2168124663360636</v>
       </c>
       <c r="F84">
-        <v>0.6638955442878104</v>
+        <v>0.6633346334577738</v>
       </c>
       <c r="G84">
-        <v>0.1166471648000594</v>
+        <v>0.1172155049126131</v>
       </c>
       <c r="H84">
-        <v>0.002641109934808046</v>
+        <v>0.002633680652291005</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3606,16 +3606,16 @@
         <v>214</v>
       </c>
       <c r="D86">
-        <v>0.05033426688815471</v>
+        <v>0.05093731617170996</v>
       </c>
       <c r="E86">
-        <v>0.6979980983599279</v>
+        <v>0.6973617518766672</v>
       </c>
       <c r="F86">
-        <v>0.2433285360701165</v>
+        <v>0.2433544338921097</v>
       </c>
       <c r="G86">
-        <v>0.00833909868180086</v>
+        <v>0.008346498059513196</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>215</v>
       </c>
       <c r="D87">
-        <v>0.02614972736504495</v>
+        <v>0.02640434548253856</v>
       </c>
       <c r="E87">
-        <v>0.8121707460161943</v>
+        <v>0.8119146389038615</v>
       </c>
       <c r="F87">
         <v>0.1613013219296182</v>
       </c>
       <c r="G87">
-        <v>0.0003782046891425474</v>
+        <v>0.0003796936839816913</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3699,10 +3699,10 @@
         <v>0.7138058030159757</v>
       </c>
       <c r="F89">
-        <v>0.2853978997660877</v>
+        <v>0.2853896050034008</v>
       </c>
       <c r="G89">
-        <v>0.000265432405978865</v>
+        <v>0.0002737271686657045</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>219</v>
       </c>
       <c r="D91">
-        <v>0.01110900487314006</v>
+        <v>0.01113471666113779</v>
       </c>
       <c r="E91">
-        <v>0.9739126182364133</v>
+        <v>0.9738526240644186</v>
       </c>
       <c r="F91">
-        <v>0.01490779551162929</v>
+        <v>0.01494207789562627</v>
       </c>
       <c r="G91">
         <v>7.058137881731825E-05</v>
@@ -3786,10 +3786,10 @@
         <v>0.0599024843278384</v>
       </c>
       <c r="F92">
-        <v>0.9136289760854424</v>
+        <v>0.9134548409565824</v>
       </c>
       <c r="G92">
-        <v>0.02646853958671929</v>
+        <v>0.02664267471557929</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3809,16 +3809,16 @@
         <v>221</v>
       </c>
       <c r="D93">
-        <v>0.003515054639349553</v>
+        <v>0.003576533513671365</v>
       </c>
       <c r="E93">
-        <v>0.514630435116733</v>
+        <v>0.5144198699721808</v>
       </c>
       <c r="F93">
-        <v>0.4715352811890015</v>
+        <v>0.4714584325960992</v>
       </c>
       <c r="G93">
-        <v>0.010319229054916</v>
+        <v>0.01054516391804866</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3838,16 +3838,16 @@
         <v>222</v>
       </c>
       <c r="D94">
-        <v>0.0007023891210779116</v>
+        <v>0.0007510448506019587</v>
       </c>
       <c r="E94">
-        <v>0.9239273906805564</v>
+        <v>0.9238787349510323</v>
       </c>
       <c r="F94">
-        <v>0.07500779739255194</v>
+        <v>0.07500592601833947</v>
       </c>
       <c r="G94">
-        <v>0.0003624228058137359</v>
+        <v>0.0003642941800261992</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>223</v>
       </c>
       <c r="D95">
-        <v>0.03600278551532034</v>
+        <v>0.03649522483087943</v>
       </c>
       <c r="E95">
-        <v>0.7336326104257859</v>
+        <v>0.7330382013529646</v>
       </c>
       <c r="F95">
-        <v>0.2290912256267409</v>
+        <v>0.2291931953840032</v>
       </c>
       <c r="G95">
         <v>0.001273378432152805</v>
@@ -3896,10 +3896,10 @@
         <v>224</v>
       </c>
       <c r="D96">
-        <v>0.0004155800978691131</v>
+        <v>0.0004467486052092965</v>
       </c>
       <c r="E96">
-        <v>0.9669250189608419</v>
+        <v>0.9668938504535017</v>
       </c>
       <c r="F96">
         <v>0.03265940094128892</v>
@@ -3931,10 +3931,10 @@
         <v>0.65009053318599</v>
       </c>
       <c r="F97">
-        <v>0.3482285067990682</v>
+        <v>0.3481921897617083</v>
       </c>
       <c r="G97">
-        <v>0.001411176308840086</v>
+        <v>0.001447493346199941</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>226</v>
       </c>
       <c r="D98">
-        <v>0.0002614021672342899</v>
+        <v>0.0002689137237640109</v>
       </c>
       <c r="E98">
-        <v>0.870267907175189</v>
+        <v>0.8700575835923569</v>
       </c>
       <c r="F98">
-        <v>0.1294526629219054</v>
+        <v>0.1296554749482078</v>
       </c>
       <c r="G98">
         <v>1.802773567133034E-05</v>
@@ -4070,16 +4070,16 @@
         <v>230</v>
       </c>
       <c r="D102">
-        <v>0.0125965933300564</v>
+        <v>0.01261014622917027</v>
       </c>
       <c r="E102">
-        <v>0.8437935820742084</v>
+        <v>0.843727139812699</v>
       </c>
       <c r="F102">
-        <v>0.1418274530830036</v>
+        <v>0.1418621617270757</v>
       </c>
       <c r="G102">
-        <v>0.001782371512731627</v>
+        <v>0.001800552231055113</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4128,16 +4128,16 @@
         <v>232</v>
       </c>
       <c r="D104">
-        <v>0.04975550945094161</v>
+        <v>0.05024913655695588</v>
       </c>
       <c r="E104">
-        <v>0.7125933683584216</v>
+        <v>0.7119776150486802</v>
       </c>
       <c r="F104">
-        <v>0.2163705188602309</v>
+        <v>0.2164003539593019</v>
       </c>
       <c r="G104">
-        <v>0.02127898576479356</v>
+        <v>0.02137127686944978</v>
       </c>
       <c r="H104">
         <v>1.617565612280486E-06</v>
@@ -4189,13 +4189,13 @@
         <v>1.059964862164819E-05</v>
       </c>
       <c r="E106">
-        <v>0.7536827154179839</v>
+        <v>0.7530758855343945</v>
       </c>
       <c r="F106">
-        <v>0.2455885587392778</v>
+        <v>0.2461900887985563</v>
       </c>
       <c r="G106">
-        <v>0.000718126194116665</v>
+        <v>0.0007234260184274891</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4218,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0.5590018697467979</v>
+        <v>0.5589319726702431</v>
       </c>
       <c r="F107">
-        <v>0.4409981302532022</v>
+        <v>0.4410680273297569</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4244,19 +4244,19 @@
         <v>236</v>
       </c>
       <c r="D108">
-        <v>6.523118328704238E-05</v>
+        <v>6.556230604484461E-05</v>
       </c>
       <c r="E108">
-        <v>0.107847344461707</v>
+        <v>0.1076804585917746</v>
       </c>
       <c r="F108">
-        <v>0.778282519234921</v>
+        <v>0.7778855030483162</v>
       </c>
       <c r="G108">
-        <v>0.1138006005242335</v>
+        <v>0.1143645025807708</v>
       </c>
       <c r="H108">
-        <v>4.304595851429192E-06</v>
+        <v>3.973473093626947E-06</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4279,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0.1094908633474576</v>
+        <v>0.1088784427966102</v>
       </c>
       <c r="G109">
-        <v>0.7707395391949152</v>
+        <v>0.7717988612288136</v>
       </c>
       <c r="H109">
-        <v>0.1194054555084746</v>
+        <v>0.1189585540254237</v>
       </c>
       <c r="I109">
         <v>0.0003641419491525424</v>
@@ -4305,16 +4305,16 @@
         <v>4.175218035104816E-07</v>
       </c>
       <c r="E110">
-        <v>0.03209657112306476</v>
+        <v>0.03208968201330684</v>
       </c>
       <c r="F110">
-        <v>0.6570640827077291</v>
+        <v>0.6557006652583657</v>
       </c>
       <c r="G110">
-        <v>0.3053675141732995</v>
+        <v>0.3067618282361228</v>
       </c>
       <c r="H110">
-        <v>0.005464734125246938</v>
+        <v>0.005440726621545085</v>
       </c>
       <c r="I110">
         <v>6.680348856167705E-06</v>
@@ -4395,13 +4395,13 @@
         <v>0.0001336176096390582</v>
       </c>
       <c r="F113">
-        <v>0.3132519621455502</v>
+        <v>0.312212068574881</v>
       </c>
       <c r="G113">
-        <v>0.6861903295707389</v>
+        <v>0.6872360326026967</v>
       </c>
       <c r="H113">
-        <v>0.0004240906740717933</v>
+        <v>0.0004182812127831386</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4505,16 +4505,16 @@
         <v>245</v>
       </c>
       <c r="D117">
-        <v>0.0001874777580653792</v>
+        <v>0.0001915940361865752</v>
       </c>
       <c r="E117">
-        <v>0.8302925887909256</v>
+        <v>0.8302671427079946</v>
       </c>
       <c r="F117">
-        <v>0.1691008214968509</v>
+        <v>0.1691150413667241</v>
       </c>
       <c r="G117">
-        <v>0.0004191119541581332</v>
+        <v>0.0004262218890947444</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -4595,13 +4595,13 @@
         <v>2.281958833462644E-05</v>
       </c>
       <c r="E120">
-        <v>0.465028980877185</v>
+        <v>0.4648007849938387</v>
       </c>
       <c r="F120">
-        <v>0.5324038154351696</v>
+        <v>0.5325521427593446</v>
       </c>
       <c r="G120">
-        <v>0.002544384099310848</v>
+        <v>0.002624252658482041</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0.2738343771746695</v>
+        <v>0.2734864300626305</v>
       </c>
       <c r="F122">
-        <v>0.7237299930410578</v>
+        <v>0.7240779401530967</v>
       </c>
       <c r="G122">
         <v>0.002435629784272791</v>
@@ -4682,13 +4682,13 @@
         <v>9.399085155711511E-05</v>
       </c>
       <c r="E123">
-        <v>0.794254025941475</v>
+        <v>0.7941913653737703</v>
       </c>
       <c r="F123">
-        <v>0.1851306472836644</v>
+        <v>0.1849426655805502</v>
       </c>
       <c r="G123">
-        <v>0.02052133592330347</v>
+        <v>0.02077197819412244</v>
       </c>
       <c r="H123">
         <v>0</v>

--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_hists_summary.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_hists_summary.xlsx
@@ -1170,22 +1170,22 @@
         <v>130</v>
       </c>
       <c r="D2">
-        <v>0.001157310343670854</v>
+        <v>0.05110064475440963</v>
       </c>
       <c r="E2">
-        <v>0.2669495647506751</v>
+        <v>0.7952485424256452</v>
       </c>
       <c r="F2">
-        <v>0.6363630264504118</v>
+        <v>0.150507551207992</v>
       </c>
       <c r="G2">
-        <v>0.09552003488703645</v>
+        <v>0.002371703265369107</v>
       </c>
       <c r="H2">
-        <v>1.006356820583351E-05</v>
+        <v>0.0004830626169917275</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0002884957295922817</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1199,13 +1199,13 @@
         <v>131</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
-        <v>0.3611111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="F3">
-        <v>0.6388888888888888</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>132</v>
       </c>
       <c r="D4">
-        <v>0.0006684256816182938</v>
+        <v>0.8850894165933744</v>
       </c>
       <c r="E4">
-        <v>0.5873233655819408</v>
+        <v>0.1147698622104955</v>
       </c>
       <c r="F4">
-        <v>0.4079624743476986</v>
+        <v>0.0001407211961301671</v>
       </c>
       <c r="G4">
-        <v>0.004045734388742304</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>133</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.776657060518732</v>
       </c>
       <c r="E5">
-        <v>0.8256484149855908</v>
+        <v>0.223342939481268</v>
       </c>
       <c r="F5">
-        <v>0.1743515850144092</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>134</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1632391322876618</v>
       </c>
       <c r="E6">
-        <v>0.0008051010465161815</v>
+        <v>0.6915115397816667</v>
       </c>
       <c r="F6">
-        <v>0.2324674561801583</v>
+        <v>0.1408437320752718</v>
       </c>
       <c r="G6">
-        <v>0.765655702395953</v>
+        <v>0.00435606889545665</v>
       </c>
       <c r="H6">
-        <v>0.001071740377372399</v>
+        <v>4.837517017693794E-05</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.15178976611757E-06</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1315,19 +1315,19 @@
         <v>135</v>
       </c>
       <c r="D7">
-        <v>0.0001627604166666667</v>
+        <v>0.5495793269230769</v>
       </c>
       <c r="E7">
-        <v>0.6395733173076923</v>
+        <v>0.4496569511217949</v>
       </c>
       <c r="F7">
-        <v>0.3207757411858974</v>
+        <v>0.0007637219551282051</v>
       </c>
       <c r="G7">
-        <v>0.03863681891025641</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0008513621794871795</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>136</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.008838102039905369</v>
       </c>
       <c r="E8">
-        <v>0.07936251097323276</v>
+        <v>0.6832046303322472</v>
       </c>
       <c r="F8">
-        <v>0.8229087622193456</v>
+        <v>0.3066888363165647</v>
       </c>
       <c r="G8">
-        <v>0.09772872680742163</v>
+        <v>0.001268431311282715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>137</v>
       </c>
       <c r="D9">
-        <v>1.388876832666383E-05</v>
+        <v>0.1221447730488451</v>
       </c>
       <c r="E9">
-        <v>0.6569404779472401</v>
+        <v>0.8098054704386247</v>
       </c>
       <c r="F9">
-        <v>0.3408321108323712</v>
+        <v>0.06768170415187368</v>
       </c>
       <c r="G9">
-        <v>0.002213522452062048</v>
+        <v>0.0003645801685749255</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.472192081665958E-06</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1402,19 +1402,19 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.003541338955552078</v>
       </c>
       <c r="E10">
-        <v>0.0004200192714724558</v>
+        <v>0.2180064732381839</v>
       </c>
       <c r="F10">
-        <v>0.448382925804831</v>
+        <v>0.7665269347652421</v>
       </c>
       <c r="G10">
-        <v>0.5511558765637482</v>
+        <v>0.01191701736903223</v>
       </c>
       <c r="H10">
-        <v>4.117835994827998E-05</v>
+        <v>8.235671989655996E-06</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1431,16 +1431,16 @@
         <v>139</v>
       </c>
       <c r="D11">
-        <v>0.0002440233743240682</v>
+        <v>0.4008473322274402</v>
       </c>
       <c r="E11">
-        <v>0.4284661054129057</v>
+        <v>0.5991241118457772</v>
       </c>
       <c r="F11">
-        <v>0.5690339529969445</v>
+        <v>2.855592678260373E-05</v>
       </c>
       <c r="G11">
-        <v>0.002255918215825695</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>140</v>
       </c>
       <c r="D12">
-        <v>0.001921844971172326</v>
+        <v>0.8116591928251121</v>
       </c>
       <c r="E12">
-        <v>0.9064702114029468</v>
+        <v>0.1883408071748879</v>
       </c>
       <c r="F12">
-        <v>0.09160794362588084</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1489,16 +1489,16 @@
         <v>141</v>
       </c>
       <c r="D13">
-        <v>0.04009153338472988</v>
+        <v>0.1935269319381994</v>
       </c>
       <c r="E13">
-        <v>0.9503273187491923</v>
+        <v>0.8062324252781875</v>
       </c>
       <c r="F13">
-        <v>0.009581147866077834</v>
+        <v>0.0002395286966519459</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.114086961171841E-06</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1518,19 +1518,19 @@
         <v>142</v>
       </c>
       <c r="D14">
-        <v>0.0328462927304151</v>
+        <v>0.1325602439348649</v>
       </c>
       <c r="E14">
-        <v>0.9388919147257234</v>
+        <v>0.7729493046055143</v>
       </c>
       <c r="F14">
-        <v>0.02817602079107288</v>
+        <v>0.09336684149808944</v>
       </c>
       <c r="G14">
-        <v>8.577175278865411E-05</v>
+        <v>0.001110744198613071</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.286576291829812E-05</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1547,22 +1547,22 @@
         <v>143</v>
       </c>
       <c r="D15">
-        <v>0.0008645787384208204</v>
+        <v>0.01353330392589325</v>
       </c>
       <c r="E15">
-        <v>0.7909836788707543</v>
+        <v>0.663378914865461</v>
       </c>
       <c r="F15">
-        <v>0.2081164534627261</v>
+        <v>0.3110366122629025</v>
       </c>
       <c r="G15">
-        <v>3.5288928098809E-05</v>
+        <v>0.01168063520070578</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.00035288928098809</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.76444640494045E-05</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1576,22 +1576,22 @@
         <v>144</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0009964183708031161</v>
       </c>
       <c r="E16">
-        <v>0.1787499609648059</v>
+        <v>0.6355140995121201</v>
       </c>
       <c r="F16">
-        <v>0.6380940255734571</v>
+        <v>0.3546730532247875</v>
       </c>
       <c r="G16">
-        <v>0.1791732225774759</v>
+        <v>0.008809702828069787</v>
       </c>
       <c r="H16">
-        <v>0.00398279088426125</v>
+        <v>4.804331585357359E-06</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.921732634142943E-06</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1605,19 +1605,19 @@
         <v>145</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.01615493434816394</v>
       </c>
       <c r="E17">
-        <v>0.1284106079021299</v>
+        <v>0.9650481181135309</v>
       </c>
       <c r="F17">
-        <v>0.8305007073263065</v>
+        <v>0.01873318854729124</v>
       </c>
       <c r="G17">
-        <v>0.04108868477156349</v>
+        <v>5.578911713722131E-05</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.9698738767459E-06</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>146</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.004102999434069043</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.793340879079419</v>
       </c>
       <c r="F18">
-        <v>0.7895208451235616</v>
+        <v>0.2023674778343709</v>
       </c>
       <c r="G18">
-        <v>0.2104791548764384</v>
+        <v>0.0001886436521411054</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>147</v>
       </c>
       <c r="D19">
-        <v>0.004025681574709041</v>
+        <v>0.06567676487949919</v>
       </c>
       <c r="E19">
-        <v>0.9330202085716992</v>
+        <v>0.9328402043448794</v>
       </c>
       <c r="F19">
-        <v>0.06294026337460555</v>
+        <v>0.001480115727413842</v>
       </c>
       <c r="G19">
-        <v>1.384647898614623E-05</v>
+        <v>2.915048207609733E-06</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>148</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.06890459363957598</v>
       </c>
       <c r="E20">
-        <v>0.002310410437618918</v>
+        <v>0.6596901331883664</v>
       </c>
       <c r="F20">
-        <v>0.6159282413699375</v>
+        <v>0.268143517260125</v>
       </c>
       <c r="G20">
-        <v>0.3817613481924436</v>
+        <v>0.003125849415602066</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001359064963305246</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1721,19 +1721,19 @@
         <v>149</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.004664904369460426</v>
       </c>
       <c r="E21">
-        <v>0.01043079766290078</v>
+        <v>0.4073283681592573</v>
       </c>
       <c r="F21">
-        <v>0.4949803126737051</v>
+        <v>0.5800209831330642</v>
       </c>
       <c r="G21">
-        <v>0.4930803918519671</v>
+        <v>0.007983957018536292</v>
       </c>
       <c r="H21">
-        <v>0.00150849781142705</v>
+        <v>1.787319681785604E-06</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>150</v>
       </c>
       <c r="D22">
-        <v>0.001409897961622099</v>
+        <v>0.1554830692761727</v>
       </c>
       <c r="E22">
-        <v>0.2465290223910914</v>
+        <v>0.764600807704256</v>
       </c>
       <c r="F22">
-        <v>0.7264260281501661</v>
+        <v>0.07904389800941525</v>
       </c>
       <c r="G22">
-        <v>0.02563505149712046</v>
+        <v>0.0008722250101560446</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1779,22 +1779,22 @@
         <v>151</v>
       </c>
       <c r="D23">
-        <v>1.665052816944518E-06</v>
+        <v>0.006536973461438533</v>
       </c>
       <c r="E23">
-        <v>0.02024599751502294</v>
+        <v>0.3071867236476798</v>
       </c>
       <c r="F23">
-        <v>0.4437515611910665</v>
+        <v>0.656806526284461</v>
       </c>
       <c r="G23">
-        <v>0.5312055873687657</v>
+        <v>0.02918168943536939</v>
       </c>
       <c r="H23">
-        <v>0.004791858766694072</v>
+        <v>0.0002806107474144797</v>
       </c>
       <c r="I23">
-        <v>3.330105633889035E-06</v>
+        <v>7.47642363675577E-06</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1808,19 +1808,19 @@
         <v>152</v>
       </c>
       <c r="D24">
-        <v>0.5757861135559844</v>
+        <v>0.5522375202855057</v>
       </c>
       <c r="E24">
-        <v>0.295540625463063</v>
+        <v>0.3599931890689466</v>
       </c>
       <c r="F24">
-        <v>0.1028397029969882</v>
+        <v>0.08412749563047084</v>
       </c>
       <c r="G24">
-        <v>0.02582485463170091</v>
+        <v>0.003641125526441231</v>
       </c>
       <c r="H24">
-        <v>8.703352263496445E-06</v>
+        <v>6.694886356535727E-07</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>153</v>
       </c>
       <c r="D25">
-        <v>4.630015464251651E-05</v>
+        <v>0.07206156068561269</v>
       </c>
       <c r="E25">
-        <v>0.3124890037132724</v>
+        <v>0.699845357483494</v>
       </c>
       <c r="F25">
-        <v>0.6740839514403978</v>
+        <v>0.227204118861757</v>
       </c>
       <c r="G25">
-        <v>0.01338074469168727</v>
+        <v>0.000888962969136317</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1866,16 +1866,16 @@
         <v>154</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.02766100554901631</v>
       </c>
       <c r="E26">
-        <v>0.2565158903648899</v>
+        <v>0.7370943332772827</v>
       </c>
       <c r="F26">
-        <v>0.7432318816209854</v>
+        <v>0.2335631410795359</v>
       </c>
       <c r="G26">
-        <v>0.0002522280141247688</v>
+        <v>0.001681520094165125</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>155</v>
       </c>
       <c r="D27">
-        <v>0.001448119543317663</v>
+        <v>0.0421511221177524</v>
       </c>
       <c r="E27">
-        <v>0.5497694901499888</v>
+        <v>0.7409684911573763</v>
       </c>
       <c r="F27">
-        <v>0.4265569034027311</v>
+        <v>0.1903595114170584</v>
       </c>
       <c r="G27">
-        <v>0.02222548690396239</v>
+        <v>0.02631799865681666</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.0001731447280053727</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2.973192299082158E-05</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1924,19 +1924,19 @@
         <v>156</v>
       </c>
       <c r="D28">
-        <v>2.199905404067625E-05</v>
+        <v>0.1030325695995072</v>
       </c>
       <c r="E28">
-        <v>0.2642746361906438</v>
+        <v>0.6938061663348476</v>
       </c>
       <c r="F28">
-        <v>0.7086115297042227</v>
+        <v>0.1998394069055031</v>
       </c>
       <c r="G28">
-        <v>0.0270918350510928</v>
+        <v>0.003310857633121776</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.099952702033813E-05</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1953,13 +1953,13 @@
         <v>157</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.3894917190177042</v>
       </c>
       <c r="E29">
-        <v>0.0759565962307253</v>
+        <v>0.6059394631639063</v>
       </c>
       <c r="F29">
-        <v>0.9240434037692747</v>
+        <v>0.004568817818389492</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1982,19 +1982,19 @@
         <v>158</v>
       </c>
       <c r="D30">
-        <v>0.004336915607440947</v>
+        <v>0.2520048006109868</v>
       </c>
       <c r="E30">
-        <v>0.9398014292728165</v>
+        <v>0.3943592820904478</v>
       </c>
       <c r="F30">
-        <v>0.05586165511974251</v>
+        <v>0.3330151110141291</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.02053897768806939</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>8.182859636681032E-05</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2011,22 +2011,22 @@
         <v>159</v>
       </c>
       <c r="D31">
-        <v>0.02594232038247741</v>
+        <v>0.2343866604377291</v>
       </c>
       <c r="E31">
-        <v>0.7732897307705213</v>
+        <v>0.4705525256879147</v>
       </c>
       <c r="F31">
-        <v>0.2002882174140101</v>
+        <v>0.2871135843319851</v>
       </c>
       <c r="G31">
-        <v>0.0004797314329911719</v>
+        <v>0.007943271930118892</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.753121566663827E-06</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.204490685415425E-06</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2040,16 +2040,16 @@
         <v>160</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.03601343996971274</v>
       </c>
       <c r="E32">
-        <v>0.04916946666035682</v>
+        <v>0.9251336898395722</v>
       </c>
       <c r="F32">
-        <v>0.9413184420992854</v>
+        <v>0.03885287019071507</v>
       </c>
       <c r="G32">
-        <v>0.009512091240357769</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2069,16 +2069,16 @@
         <v>161</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.4112554112554113</v>
       </c>
       <c r="E33">
-        <v>0.4331282752335384</v>
+        <v>0.5876053770790612</v>
       </c>
       <c r="F33">
-        <v>0.5618591934381408</v>
+        <v>0.001139211665527455</v>
       </c>
       <c r="G33">
-        <v>0.005012531328320802</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>162</v>
       </c>
       <c r="D34">
-        <v>1.812319459000894E-07</v>
+        <v>0.007269938277836185</v>
       </c>
       <c r="E34">
-        <v>0.01609774636262954</v>
+        <v>0.3002108996154439</v>
       </c>
       <c r="F34">
-        <v>0.652452584739074</v>
+        <v>0.6530173034824988</v>
       </c>
       <c r="G34">
-        <v>0.3303918180300776</v>
+        <v>0.03871857415404099</v>
       </c>
       <c r="H34">
-        <v>0.001057307172381121</v>
+        <v>0.0007457694573788677</v>
       </c>
       <c r="I34">
-        <v>3.624638918001787E-07</v>
+        <v>3.75150128013185E-05</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2127,16 +2127,16 @@
         <v>163</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02908492248593771</v>
       </c>
       <c r="E35">
-        <v>0.1620249691315681</v>
+        <v>0.8407188914803128</v>
       </c>
       <c r="F35">
-        <v>0.7961311565372479</v>
+        <v>0.1301961860337495</v>
       </c>
       <c r="G35">
-        <v>0.04184387433118398</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2156,22 +2156,22 @@
         <v>164</v>
       </c>
       <c r="D36">
-        <v>2.255231545186552E-07</v>
+        <v>0.001196738754399393</v>
       </c>
       <c r="E36">
-        <v>0.1436179935453018</v>
+        <v>0.7624019707117556</v>
       </c>
       <c r="F36">
-        <v>0.8300165455062313</v>
+        <v>0.2343985319343078</v>
       </c>
       <c r="G36">
-        <v>0.02636512266373517</v>
+        <v>0.001972538493423969</v>
       </c>
       <c r="H36">
-        <v>1.127615772593276E-07</v>
+        <v>2.176298686507895E-05</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>8.457119248087676E-06</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2185,16 +2185,16 @@
         <v>165</v>
       </c>
       <c r="D37">
-        <v>0.0006991359875576226</v>
+        <v>0.1116885318019638</v>
       </c>
       <c r="E37">
-        <v>0.4977486824215279</v>
+        <v>0.829422035121302</v>
       </c>
       <c r="F37">
-        <v>0.4780856385504331</v>
+        <v>0.0587274229548403</v>
       </c>
       <c r="G37">
-        <v>0.02346654304048134</v>
+        <v>0.0001620101218939233</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="F38">
-        <v>0.4880952380952381</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="G38">
-        <v>0.5119047619047619</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2243,22 +2243,22 @@
         <v>167</v>
       </c>
       <c r="D39">
-        <v>0.004659474733109404</v>
+        <v>0.001542632322532958</v>
       </c>
       <c r="E39">
-        <v>0.7581061293612403</v>
+        <v>0.5830530319333077</v>
       </c>
       <c r="F39">
-        <v>0.2361291741127818</v>
+        <v>0.3878100468754386</v>
       </c>
       <c r="G39">
-        <v>0.001104052245997811</v>
+        <v>0.02635690827945621</v>
       </c>
       <c r="H39">
-        <v>1.169546870760393E-06</v>
+        <v>0.001208141917495486</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2.923867176900981E-05</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2272,13 +2272,13 @@
         <v>168</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.04303428154631656</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.6294675419401896</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.3274981765134938</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2301,16 +2301,16 @@
         <v>169</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.991007868115399</v>
       </c>
       <c r="E41">
-        <v>0.4640314724615961</v>
+        <v>0.008992131884600974</v>
       </c>
       <c r="F41">
-        <v>0.5324091420007493</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.003559385537654552</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2330,16 +2330,16 @@
         <v>170</v>
       </c>
       <c r="D42">
-        <v>0.01368196639077</v>
+        <v>0.8251316779533484</v>
       </c>
       <c r="E42">
-        <v>0.7896538750940557</v>
+        <v>0.1741409581138701</v>
       </c>
       <c r="F42">
-        <v>0.1954100827689992</v>
+        <v>0.00072736393278154</v>
       </c>
       <c r="G42">
-        <v>0.001254075746175069</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2388,13 +2388,13 @@
         <v>172</v>
       </c>
       <c r="D44">
-        <v>0.004422332780541736</v>
+        <v>0.117191818684356</v>
       </c>
       <c r="E44">
-        <v>0.6053067993366501</v>
+        <v>0.8568269762299613</v>
       </c>
       <c r="F44">
-        <v>0.3902708678828082</v>
+        <v>0.0259812050856827</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2417,22 +2417,22 @@
         <v>173</v>
       </c>
       <c r="D45">
-        <v>0.000494182859648642</v>
+        <v>0.03981212486639077</v>
       </c>
       <c r="E45">
-        <v>0.6047830391646339</v>
+        <v>0.7172477526242224</v>
       </c>
       <c r="F45">
-        <v>0.3887223531668814</v>
+        <v>0.2267999561487653</v>
       </c>
       <c r="G45">
-        <v>0.005999568339408556</v>
+        <v>0.01585496204127497</v>
       </c>
       <c r="H45">
-        <v>8.564694274673171E-07</v>
+        <v>0.0002826349110642147</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2.569408282401952E-06</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2446,22 +2446,22 @@
         <v>174</v>
       </c>
       <c r="D46">
-        <v>2.603216608819475E-06</v>
+        <v>0.01748245896865764</v>
       </c>
       <c r="E46">
-        <v>0.03377524794708479</v>
+        <v>0.4292053383791109</v>
       </c>
       <c r="F46">
-        <v>0.8113158850880686</v>
+        <v>0.4953831953442587</v>
       </c>
       <c r="G46">
-        <v>0.1548802315821495</v>
+        <v>0.05656083103599468</v>
       </c>
       <c r="H46">
-        <v>2.603216608819475E-05</v>
+        <v>0.001332103127541623</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3.607314443649844E-05</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2475,16 +2475,16 @@
         <v>175</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.1137026239067055</v>
       </c>
       <c r="E47">
-        <v>0.5102040816326531</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F47">
-        <v>0.478134110787172</v>
+        <v>0.02915451895043732</v>
       </c>
       <c r="G47">
-        <v>0.01166180758017493</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2504,19 +2504,19 @@
         <v>176</v>
       </c>
       <c r="D48">
-        <v>0.0004303543250609668</v>
+        <v>0.02251858617417637</v>
       </c>
       <c r="E48">
-        <v>0.3701863157853177</v>
+        <v>0.7210241248475006</v>
       </c>
       <c r="F48">
-        <v>0.6070029308840426</v>
+        <v>0.2544259375999389</v>
       </c>
       <c r="G48">
-        <v>0.02238039900557881</v>
+        <v>0.002030035310111747</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1.316068272357697E-06</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>177</v>
       </c>
       <c r="D49">
-        <v>0.002158182049003428</v>
+        <v>0.8414370953408659</v>
       </c>
       <c r="E49">
-        <v>0.8775549066903644</v>
+        <v>0.1585629046591342</v>
       </c>
       <c r="F49">
-        <v>0.1202869112606322</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>178</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.3945147679324895</v>
       </c>
       <c r="E50">
-        <v>0.4303797468354431</v>
+        <v>0.6054852320675106</v>
       </c>
       <c r="F50">
-        <v>0.5675105485232067</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.002109704641350211</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2591,16 +2591,16 @@
         <v>179</v>
       </c>
       <c r="D51">
-        <v>5.850839213850717E-05</v>
+        <v>0.01122852360432046</v>
       </c>
       <c r="E51">
-        <v>0.4834370373385296</v>
+        <v>0.628675217371396</v>
       </c>
       <c r="F51">
-        <v>0.5122053593687199</v>
+        <v>0.3581731136131222</v>
       </c>
       <c r="G51">
-        <v>0.004299094900612048</v>
+        <v>0.001923145411161366</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2620,19 +2620,19 @@
         <v>180</v>
       </c>
       <c r="D52">
-        <v>0.0001427555695406865</v>
+        <v>0.04733452983277241</v>
       </c>
       <c r="E52">
-        <v>0.08329234556197314</v>
+        <v>0.7898688282406708</v>
       </c>
       <c r="F52">
-        <v>0.8670644051302532</v>
+        <v>0.1580681150157496</v>
       </c>
       <c r="G52">
-        <v>0.04949898575686464</v>
+        <v>0.004691330037053616</v>
       </c>
       <c r="H52">
-        <v>1.507981368387533E-06</v>
+        <v>3.719687375355915E-05</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>181</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.3706004140786749</v>
       </c>
       <c r="E53">
-        <v>0.9648033126293996</v>
+        <v>0.6293995859213251</v>
       </c>
       <c r="F53">
-        <v>0.03519668737060042</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2678,22 +2678,22 @@
         <v>182</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.9628571428571429</v>
       </c>
       <c r="F54">
-        <v>0.9485714285714286</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="G54">
-        <v>0.03428571428571429</v>
+        <v>0.008571428571428572</v>
       </c>
       <c r="H54">
-        <v>0.01428571428571429</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.002857142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2707,13 +2707,13 @@
         <v>183</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.002087410306588389</v>
       </c>
       <c r="E55">
-        <v>0.8524461839530333</v>
+        <v>0.9865622961513373</v>
       </c>
       <c r="F55">
-        <v>0.1475538160469667</v>
+        <v>0.01135029354207436</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2736,16 +2736,16 @@
         <v>184</v>
       </c>
       <c r="D56">
-        <v>9.224808585221857E-06</v>
+        <v>0.004816580055963839</v>
       </c>
       <c r="E56">
-        <v>0.2435128071092525</v>
+        <v>0.5213394422065742</v>
       </c>
       <c r="F56">
-        <v>0.6236696288552013</v>
+        <v>0.4694142246548384</v>
       </c>
       <c r="G56">
-        <v>0.132808339226961</v>
+        <v>0.004429753082623535</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2765,16 +2765,16 @@
         <v>185</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.4292728792310907</v>
       </c>
       <c r="E57">
-        <v>0.1158587547012119</v>
+        <v>0.4963435018804848</v>
       </c>
       <c r="F57">
-        <v>0.8830965315503552</v>
+        <v>0.07417467613873799</v>
       </c>
       <c r="G57">
-        <v>0.001044713748432929</v>
+        <v>0.0002089427496865859</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>186</v>
       </c>
       <c r="D58">
-        <v>0.004300442898874639</v>
+        <v>0.1391267379620528</v>
       </c>
       <c r="E58">
-        <v>0.6843073421601482</v>
+        <v>0.7415363339503352</v>
       </c>
       <c r="F58">
-        <v>0.2717574264668381</v>
+        <v>0.1184468907712687</v>
       </c>
       <c r="G58">
-        <v>0.03960045522804296</v>
+        <v>0.0008892220149846954</v>
       </c>
       <c r="H58">
-        <v>3.433324609608798E-05</v>
+        <v>8.153013584823002E-07</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2823,22 +2823,22 @@
         <v>187</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.01458120278428397</v>
       </c>
       <c r="E59">
-        <v>0.04074159601491109</v>
+        <v>0.8460726421007488</v>
       </c>
       <c r="F59">
-        <v>0.9592584039850889</v>
+        <v>0.1364101210701679</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.002474185992808366</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.0003628806122785604</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>9.896743971233465E-05</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2852,19 +2852,19 @@
         <v>188</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.2217171717171717</v>
       </c>
       <c r="E60">
-        <v>0.1646464646464647</v>
+        <v>0.7767676767676768</v>
       </c>
       <c r="F60">
-        <v>0.3227272727272728</v>
+        <v>0.001515151515151515</v>
       </c>
       <c r="G60">
-        <v>0.5121212121212121</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0.0005050505050505051</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2881,16 +2881,16 @@
         <v>189</v>
       </c>
       <c r="D61">
-        <v>0.5188695987646739</v>
+        <v>0.3449717395760514</v>
       </c>
       <c r="E61">
-        <v>0.477079272066351</v>
+        <v>0.6499315771299579</v>
       </c>
       <c r="F61">
-        <v>0.004051129168975107</v>
+        <v>0.005094128368497297</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>2.554925493459293E-06</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2910,13 +2910,13 @@
         <v>190</v>
       </c>
       <c r="D62">
-        <v>0.02464938376540586</v>
+        <v>0.6863578410539737</v>
       </c>
       <c r="E62">
-        <v>0.9430514237144071</v>
+        <v>0.3119422014449639</v>
       </c>
       <c r="F62">
-        <v>0.032299192520187</v>
+        <v>0.001699957501062473</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2939,19 +2939,19 @@
         <v>191</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.02873818366882871</v>
       </c>
       <c r="E63">
-        <v>1.082825307793094E-05</v>
+        <v>0.9326266093491137</v>
       </c>
       <c r="F63">
-        <v>0.9266602419031738</v>
+        <v>0.03863520698205759</v>
       </c>
       <c r="G63">
-        <v>0.07323147556604694</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>9.745427770137843E-05</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2968,19 +2968,19 @@
         <v>192</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.004084888962516675</v>
       </c>
       <c r="E64">
-        <v>0.05181095290824912</v>
+        <v>0.4722689661786888</v>
       </c>
       <c r="F64">
-        <v>0.7095761655230141</v>
+        <v>0.4869355485609159</v>
       </c>
       <c r="G64">
-        <v>0.173610505619447</v>
+        <v>0.03642831608408681</v>
       </c>
       <c r="H64">
-        <v>0.06500074112179682</v>
+        <v>0.0002806453862988377</v>
       </c>
       <c r="I64">
         <v>1.634827493002938E-06</v>
@@ -2997,22 +2997,22 @@
         <v>193</v>
       </c>
       <c r="D65">
-        <v>0.05662121316752634</v>
+        <v>0.1023792702296402</v>
       </c>
       <c r="E65">
-        <v>0.8124790837764474</v>
+        <v>0.6238851320842917</v>
       </c>
       <c r="F65">
-        <v>0.1269900292694328</v>
+        <v>0.2680516969365369</v>
       </c>
       <c r="G65">
-        <v>0.003909673786593431</v>
+        <v>0.005667964579205423</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>5.312056775262814E-06</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1.062411355052563E-05</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3026,19 +3026,19 @@
         <v>194</v>
       </c>
       <c r="D66">
-        <v>0.06696614218009479</v>
+        <v>0.08674244549763033</v>
       </c>
       <c r="E66">
-        <v>0.8886187677725118</v>
+        <v>0.8738608530805687</v>
       </c>
       <c r="F66">
-        <v>0.04416363981042654</v>
+        <v>0.03936788625592417</v>
       </c>
       <c r="G66">
-        <v>0.0002514502369668246</v>
+        <v>2.699526066350711E-05</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1.819905213270142E-06</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3055,13 +3055,13 @@
         <v>195</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         <v>196</v>
       </c>
       <c r="D68">
-        <v>0.005259226590744892</v>
+        <v>0.02180394761178855</v>
       </c>
       <c r="E68">
-        <v>0.6437888490968745</v>
+        <v>0.6625069153031121</v>
       </c>
       <c r="F68">
-        <v>0.3472797756742415</v>
+        <v>0.2987615995398921</v>
       </c>
       <c r="G68">
-        <v>0.003672065956297355</v>
+        <v>0.01605764181611342</v>
       </c>
       <c r="H68">
-        <v>8.268184176117614E-08</v>
+        <v>0.0008604699983538043</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>9.425730740110857E-06</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3113,13 +3113,13 @@
         <v>197</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="E69">
-        <v>0.7094017094017094</v>
+        <v>0.6239316239316239</v>
       </c>
       <c r="F69">
-        <v>0.2905982905982906</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3142,19 +3142,19 @@
         <v>198</v>
       </c>
       <c r="D70">
-        <v>0.0002764897132501865</v>
+        <v>0.008251385779767615</v>
       </c>
       <c r="E70">
-        <v>0.3428572380343247</v>
+        <v>0.7110915680631062</v>
       </c>
       <c r="F70">
-        <v>0.6549008634473936</v>
+        <v>0.2757202057349963</v>
       </c>
       <c r="G70">
-        <v>0.001965408805031447</v>
+        <v>0.004913522012578616</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2.331840955122055E-05</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3171,19 +3171,19 @@
         <v>199</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.587047718930257</v>
       </c>
       <c r="E71">
-        <v>0.983744100681699</v>
+        <v>0.3940744625065548</v>
       </c>
       <c r="F71">
         <v>0.016255899318301</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.002097535395909806</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.0005243838489774515</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3203,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3229,19 +3229,19 @@
         <v>201</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.01543358197945829</v>
       </c>
       <c r="E73">
-        <v>0.06315295043299696</v>
+        <v>0.6680993069674612</v>
       </c>
       <c r="F73">
-        <v>0.7270645569899292</v>
+        <v>0.3025589806808913</v>
       </c>
       <c r="G73">
-        <v>0.2096261490486276</v>
+        <v>0.01384030237720165</v>
       </c>
       <c r="H73">
-        <v>0.0001563435284462133</v>
+        <v>6.782799498751116E-05</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3258,19 +3258,19 @@
         <v>202</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.008763388510223954</v>
       </c>
       <c r="E74">
-        <v>0.002921129503407984</v>
+        <v>0.4235637779941577</v>
       </c>
       <c r="F74">
-        <v>0.6835443037974683</v>
+        <v>0.5374878286270691</v>
       </c>
       <c r="G74">
-        <v>0.308666017526777</v>
+        <v>0.03018500486854917</v>
       </c>
       <c r="H74">
-        <v>0.004868549172346641</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>203</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.040495984788721</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.8352246293262131</v>
       </c>
       <c r="F75">
-        <v>0.7207152537573073</v>
+        <v>0.1240164249448793</v>
       </c>
       <c r="G75">
-        <v>0.2792847462426927</v>
+        <v>0.0002629609401865</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>204</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>0.675146771037182</v>
       </c>
       <c r="E76">
-        <v>0.8166992824527071</v>
+        <v>0.324853228962818</v>
       </c>
       <c r="F76">
-        <v>0.1831702544031311</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.0001304631441617743</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3374,19 +3374,19 @@
         <v>206</v>
       </c>
       <c r="D78">
-        <v>0.002292096041653893</v>
+        <v>0.06011800049992218</v>
       </c>
       <c r="E78">
-        <v>0.2156268128074403</v>
+        <v>0.6269212811213349</v>
       </c>
       <c r="F78">
-        <v>0.7125588941344037</v>
+        <v>0.2629307702102974</v>
       </c>
       <c r="G78">
-        <v>0.06952219701650215</v>
+        <v>0.04969981087849533</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>0.0003301372899501493</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3403,19 +3403,19 @@
         <v>207</v>
       </c>
       <c r="D79">
-        <v>9.269605215029788E-05</v>
+        <v>0.04024386577611649</v>
       </c>
       <c r="E79">
-        <v>0.3532201856927402</v>
+        <v>0.839160449350376</v>
       </c>
       <c r="F79">
-        <v>0.6256726727027664</v>
+        <v>0.1098329216292458</v>
       </c>
       <c r="G79">
-        <v>0.02095870265611769</v>
+        <v>0.01059240293220161</v>
       </c>
       <c r="H79">
-        <v>5.574289622551697E-05</v>
+        <v>0.0001703603120600069</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>208</v>
       </c>
       <c r="D80">
-        <v>0.01632491436436122</v>
+        <v>0.03496035707466352</v>
       </c>
       <c r="E80">
-        <v>0.9636757092946118</v>
+        <v>0.9589922867054275</v>
       </c>
       <c r="F80">
-        <v>0.01999595903158576</v>
+        <v>0.006047356219908989</v>
       </c>
       <c r="G80">
-        <v>3.417309441214375E-06</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3461,16 +3461,16 @@
         <v>209</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.01879237627462495</v>
       </c>
       <c r="E81">
-        <v>0.009663125300304309</v>
+        <v>0.9464257113875394</v>
       </c>
       <c r="F81">
-        <v>0.85163632480914</v>
+        <v>0.03478191233783567</v>
       </c>
       <c r="G81">
-        <v>0.1387005498905558</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3490,16 +3490,16 @@
         <v>210</v>
       </c>
       <c r="D82">
-        <v>0.03416113726817115</v>
+        <v>0.2805358597866939</v>
       </c>
       <c r="E82">
-        <v>0.9478934167661781</v>
+        <v>0.7183246263957527</v>
       </c>
       <c r="F82">
-        <v>0.01794544596565071</v>
+        <v>0.001113719230471601</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2.579458708176732E-05</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3519,16 +3519,16 @@
         <v>211</v>
       </c>
       <c r="D83">
-        <v>0.003146718355125763</v>
+        <v>0.3042127231754971</v>
       </c>
       <c r="E83">
-        <v>0.8952612218502607</v>
+        <v>0.6957357369488324</v>
       </c>
       <c r="F83">
-        <v>0.09690158286619517</v>
+        <v>5.153987567049722E-05</v>
       </c>
       <c r="G83">
-        <v>0.004690476928418426</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>212</v>
       </c>
       <c r="D84">
-        <v>3.714641258520458E-06</v>
+        <v>0.0004346130272468936</v>
       </c>
       <c r="E84">
-        <v>0.2168124663360636</v>
+        <v>0.4461024126594974</v>
       </c>
       <c r="F84">
-        <v>0.6633346334577738</v>
+        <v>0.5351312197024573</v>
       </c>
       <c r="G84">
-        <v>0.1172155049126131</v>
+        <v>0.01830575212198882</v>
       </c>
       <c r="H84">
-        <v>0.002633680652291005</v>
+        <v>2.600248880964321E-05</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3577,13 +3577,13 @@
         <v>213</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.08027079303675048</v>
       </c>
       <c r="E85">
-        <v>0.3467117988394584</v>
+        <v>0.8950676982591876</v>
       </c>
       <c r="F85">
-        <v>0.6532882011605415</v>
+        <v>0.02466150870406189</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>214</v>
       </c>
       <c r="D86">
-        <v>0.05093731617170996</v>
+        <v>0.08147824767937016</v>
       </c>
       <c r="E86">
-        <v>0.6973617518766672</v>
+        <v>0.5451935492225104</v>
       </c>
       <c r="F86">
-        <v>0.2433544338921097</v>
+        <v>0.2825526373232011</v>
       </c>
       <c r="G86">
-        <v>0.008346498059513196</v>
+        <v>0.08608436030529833</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>0.004680106403051503</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1.109906656850159E-05</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3635,19 +3635,19 @@
         <v>215</v>
       </c>
       <c r="D87">
-        <v>0.02640434548253856</v>
+        <v>0.009623373645386945</v>
       </c>
       <c r="E87">
-        <v>0.8119146389038615</v>
+        <v>0.6924659839128997</v>
       </c>
       <c r="F87">
-        <v>0.1613013219296182</v>
+        <v>0.2913814000720674</v>
       </c>
       <c r="G87">
-        <v>0.0003796936839816913</v>
+        <v>0.006526264379967659</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2.977989678287775E-06</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3667,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.04821428571428572</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3693,16 +3693,16 @@
         <v>217</v>
       </c>
       <c r="D89">
-        <v>0.0005308648119577299</v>
+        <v>0.810713515486322</v>
       </c>
       <c r="E89">
-        <v>0.7138058030159757</v>
+        <v>0.1892864845136781</v>
       </c>
       <c r="F89">
-        <v>0.2853896050034008</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0.0002737271686657045</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3722,13 +3722,13 @@
         <v>218</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>0.7383825417201541</v>
       </c>
       <c r="E90">
-        <v>0.8985879332477535</v>
+        <v>0.2602053915275995</v>
       </c>
       <c r="F90">
-        <v>0.1014120667522465</v>
+        <v>0.00141206675224647</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3751,22 +3751,22 @@
         <v>219</v>
       </c>
       <c r="D91">
-        <v>0.01113471666113779</v>
+        <v>0.02791745608577856</v>
       </c>
       <c r="E91">
-        <v>0.9738526240644186</v>
+        <v>0.735785162382545</v>
       </c>
       <c r="F91">
-        <v>0.01494207789562627</v>
+        <v>0.2211995204499462</v>
       </c>
       <c r="G91">
-        <v>7.058137881731825E-05</v>
+        <v>0.01473235036999767</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>0.0003594608792624851</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>6.04983247005585E-06</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3780,16 +3780,16 @@
         <v>220</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.004701648479219875</v>
       </c>
       <c r="E92">
-        <v>0.0599024843278384</v>
+        <v>0.9081146970048758</v>
       </c>
       <c r="F92">
-        <v>0.9134548409565824</v>
+        <v>0.08718365451590435</v>
       </c>
       <c r="G92">
-        <v>0.02664267471557929</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3809,16 +3809,16 @@
         <v>221</v>
       </c>
       <c r="D93">
-        <v>0.003576533513671365</v>
+        <v>0.1172740267125709</v>
       </c>
       <c r="E93">
-        <v>0.5144198699721808</v>
+        <v>0.8289304212839863</v>
       </c>
       <c r="F93">
-        <v>0.4714584325960992</v>
+        <v>0.05322226150039193</v>
       </c>
       <c r="G93">
-        <v>0.01054516391804866</v>
+        <v>0.0005732905030508891</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3838,16 +3838,16 @@
         <v>222</v>
       </c>
       <c r="D94">
-        <v>0.0007510448506019587</v>
+        <v>0.006700143472022956</v>
       </c>
       <c r="E94">
-        <v>0.9238787349510323</v>
+        <v>0.8841151518932069</v>
       </c>
       <c r="F94">
-        <v>0.07500592601833947</v>
+        <v>0.108978229679995</v>
       </c>
       <c r="G94">
-        <v>0.0003642941800261992</v>
+        <v>0.0002064749547751232</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>223</v>
       </c>
       <c r="D95">
-        <v>0.03649522483087943</v>
+        <v>0.1034421010744131</v>
       </c>
       <c r="E95">
-        <v>0.7330382013529646</v>
+        <v>0.7803123756466375</v>
       </c>
       <c r="F95">
-        <v>0.2291931953840032</v>
+        <v>0.116208217270195</v>
       </c>
       <c r="G95">
-        <v>0.001273378432152805</v>
+        <v>3.730600875447672E-05</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3896,16 +3896,16 @@
         <v>224</v>
       </c>
       <c r="D96">
-        <v>0.0004467486052092965</v>
+        <v>0.00831160195738226</v>
       </c>
       <c r="E96">
-        <v>0.9668938504535017</v>
+        <v>0.8983387185587682</v>
       </c>
       <c r="F96">
-        <v>0.03265940094128892</v>
+        <v>0.09329773197161588</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>5.194751223363913E-05</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3925,22 +3925,22 @@
         <v>225</v>
       </c>
       <c r="D97">
-        <v>0.0002697837061017811</v>
+        <v>0.2967101952300166</v>
       </c>
       <c r="E97">
-        <v>0.65009053318599</v>
+        <v>0.6444302635060468</v>
       </c>
       <c r="F97">
-        <v>0.3481921897617083</v>
+        <v>0.05503068789656908</v>
       </c>
       <c r="G97">
-        <v>0.001447493346199941</v>
+        <v>0.003590198550431395</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.0002334666687419259</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>5.188148194265021E-06</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3954,19 +3954,19 @@
         <v>226</v>
       </c>
       <c r="D98">
-        <v>0.0002689137237640109</v>
+        <v>0.02200585600947057</v>
       </c>
       <c r="E98">
-        <v>0.8700575835923569</v>
+        <v>0.7077388562303103</v>
       </c>
       <c r="F98">
-        <v>0.1296554749482078</v>
+        <v>0.257119077701043</v>
       </c>
       <c r="G98">
+        <v>0.01311818232350471</v>
+      </c>
+      <c r="H98">
         <v>1.802773567133034E-05</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>227</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.001282051282051282</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.5044871794871795</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.4942307692307693</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4012,13 +4012,13 @@
         <v>228</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.2712765957446808</v>
       </c>
       <c r="E100">
-        <v>0.5425531914893617</v>
+        <v>0.726063829787234</v>
       </c>
       <c r="F100">
-        <v>0.4574468085106383</v>
+        <v>0.002659574468085106</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4041,13 +4041,13 @@
         <v>229</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4070,19 +4070,19 @@
         <v>230</v>
       </c>
       <c r="D102">
-        <v>0.01261014622917027</v>
+        <v>0.04206555438133825</v>
       </c>
       <c r="E102">
-        <v>0.843727139812699</v>
+        <v>0.7932944883003772</v>
       </c>
       <c r="F102">
-        <v>0.1418621617270757</v>
+        <v>0.1633944128338682</v>
       </c>
       <c r="G102">
-        <v>0.001800552231055113</v>
+        <v>0.00124356113332648</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1.983351089834896E-06</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4099,13 +4099,13 @@
         <v>231</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.1079207920792079</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.7633663366336634</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4128,19 +4128,19 @@
         <v>232</v>
       </c>
       <c r="D104">
-        <v>0.05024913655695588</v>
+        <v>0.3055026976051851</v>
       </c>
       <c r="E104">
-        <v>0.7119776150486802</v>
+        <v>0.6268535841614445</v>
       </c>
       <c r="F104">
-        <v>0.2164003539593019</v>
+        <v>0.06721191807964767</v>
       </c>
       <c r="G104">
-        <v>0.02137127686944978</v>
+        <v>0.0004310812356727496</v>
       </c>
       <c r="H104">
-        <v>1.617565612280486E-06</v>
+        <v>7.189180499024384E-07</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4157,13 +4157,13 @@
         <v>233</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.9273255813953488</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.008720930232558139</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>234</v>
       </c>
       <c r="D106">
-        <v>1.059964862164819E-05</v>
+        <v>0.02637457568281611</v>
       </c>
       <c r="E106">
-        <v>0.7530758855343945</v>
+        <v>0.8085968450145877</v>
       </c>
       <c r="F106">
-        <v>0.2461900887985563</v>
+        <v>0.1649861807081095</v>
       </c>
       <c r="G106">
-        <v>0.0007234260184274891</v>
+        <v>4.239859448659277E-05</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>235</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>0.08101071172698202</v>
       </c>
       <c r="E107">
-        <v>0.5589319726702431</v>
+        <v>0.918762122774215</v>
       </c>
       <c r="F107">
-        <v>0.4410680273297569</v>
+        <v>0.0002271654988030126</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4244,22 +4244,22 @@
         <v>236</v>
       </c>
       <c r="D108">
-        <v>6.556230604484461E-05</v>
+        <v>0.01175717576128433</v>
       </c>
       <c r="E108">
-        <v>0.1076804585917746</v>
+        <v>0.6081854207974231</v>
       </c>
       <c r="F108">
-        <v>0.7778855030483162</v>
+        <v>0.3716611236717011</v>
       </c>
       <c r="G108">
-        <v>0.1143645025807708</v>
+        <v>0.008355220547624062</v>
       </c>
       <c r="H108">
-        <v>3.973473093626947E-06</v>
+        <v>4.006585369407171E-05</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>9.933682734067366E-07</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4273,22 +4273,22 @@
         <v>237</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.003608315677966102</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.8665088718220338</v>
       </c>
       <c r="F109">
-        <v>0.1088784427966102</v>
+        <v>0.1298497086864407</v>
       </c>
       <c r="G109">
-        <v>0.7717988612288136</v>
+        <v>3.310381355932203E-05</v>
       </c>
       <c r="H109">
-        <v>0.1189585540254237</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0.0003641419491525424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4302,22 +4302,22 @@
         <v>238</v>
       </c>
       <c r="D110">
-        <v>4.175218035104816E-07</v>
+        <v>0.002504713299259379</v>
       </c>
       <c r="E110">
-        <v>0.03208968201330684</v>
+        <v>0.4582571095090799</v>
       </c>
       <c r="F110">
-        <v>0.6557006652583657</v>
+        <v>0.5148073063810483</v>
       </c>
       <c r="G110">
-        <v>0.3067618282361228</v>
+        <v>0.0242686635899485</v>
       </c>
       <c r="H110">
-        <v>0.005440726621545085</v>
+        <v>0.0001571969590216963</v>
       </c>
       <c r="I110">
-        <v>6.680348856167705E-06</v>
+        <v>5.010261642125779E-06</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4331,13 +4331,13 @@
         <v>239</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4360,13 +4360,13 @@
         <v>240</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>0.00635386119257087</v>
       </c>
       <c r="E112">
-        <v>0.2324046920821114</v>
+        <v>0.8497067448680352</v>
       </c>
       <c r="F112">
-        <v>0.7675953079178885</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4389,22 +4389,22 @@
         <v>241</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.09597810994986435</v>
       </c>
       <c r="E113">
-        <v>0.0001336176096390582</v>
+        <v>0.7561304340248529</v>
       </c>
       <c r="F113">
-        <v>0.312212068574881</v>
+        <v>0.1430696031556994</v>
       </c>
       <c r="G113">
-        <v>0.6872360326026967</v>
+        <v>0.004589474418037216</v>
       </c>
       <c r="H113">
-        <v>0.0004182812127831386</v>
+        <v>0.0002265689902575334</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>5.809461288654703E-06</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4418,13 +4418,13 @@
         <v>242</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>0.003355704697986577</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.7281879194630873</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4447,13 +4447,13 @@
         <v>243</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>0.01555023923444976</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.9497607655502392</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.03468899521531101</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4476,13 +4476,13 @@
         <v>244</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>0.1057884231536926</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.8383233532934131</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.05588822355289421</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4505,22 +4505,22 @@
         <v>245</v>
       </c>
       <c r="D117">
-        <v>0.0001915940361865752</v>
+        <v>0.01209325091297178</v>
       </c>
       <c r="E117">
-        <v>0.8302671427079946</v>
+        <v>0.4611765744857365</v>
       </c>
       <c r="F117">
-        <v>0.1691150413667241</v>
+        <v>0.5111650301966421</v>
       </c>
       <c r="G117">
-        <v>0.0004262218890947444</v>
+        <v>0.01552285900213186</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>3.854333149847118E-05</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3.742071019269046E-06</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4534,16 +4534,16 @@
         <v>246</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.1371249440214957</v>
       </c>
       <c r="E118">
-        <v>0.4220331392745186</v>
+        <v>0.5130317957904165</v>
       </c>
       <c r="F118">
-        <v>0.5582624272279445</v>
+        <v>0.3487684729064039</v>
       </c>
       <c r="G118">
-        <v>0.01970443349753695</v>
+        <v>0.001074787281683833</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.009663075081238242</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.9396271592269539</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.05070976569180777</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4592,16 +4592,16 @@
         <v>248</v>
       </c>
       <c r="D120">
-        <v>2.281958833462644E-05</v>
+        <v>0.01354342567660079</v>
       </c>
       <c r="E120">
-        <v>0.4648007849938387</v>
+        <v>0.7322805896581626</v>
       </c>
       <c r="F120">
-        <v>0.5325521427593446</v>
+        <v>0.2534913970151979</v>
       </c>
       <c r="G120">
-        <v>0.002624252658482041</v>
+        <v>0.0006845876500387933</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -4621,16 +4621,16 @@
         <v>249</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.2986175115207373</v>
       </c>
       <c r="E121">
-        <v>0.1096774193548387</v>
+        <v>0.6405529953917051</v>
       </c>
       <c r="F121">
-        <v>0.8820276497695853</v>
+        <v>0.05898617511520737</v>
       </c>
       <c r="G121">
-        <v>0.008294930875576038</v>
+        <v>0.00184331797235023</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -4650,16 +4650,16 @@
         <v>250</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.3048016701461378</v>
       </c>
       <c r="E122">
-        <v>0.2734864300626305</v>
+        <v>0.6767571329157968</v>
       </c>
       <c r="F122">
-        <v>0.7240779401530967</v>
+        <v>0.01844119693806541</v>
       </c>
       <c r="G122">
-        <v>0.002435629784272791</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -4679,16 +4679,16 @@
         <v>251</v>
       </c>
       <c r="D123">
-        <v>9.399085155711511E-05</v>
+        <v>0.1307412745159471</v>
       </c>
       <c r="E123">
-        <v>0.7941913653737703</v>
+        <v>0.7443448837646469</v>
       </c>
       <c r="F123">
-        <v>0.1849426655805502</v>
+        <v>0.1243185663262109</v>
       </c>
       <c r="G123">
-        <v>0.02077197819412244</v>
+        <v>0.0005952753931950624</v>
       </c>
       <c r="H123">
         <v>0</v>
